--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P02_trail11 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P02_trail11 Features.xlsx
@@ -6713,7 +6713,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z32"/>
+  <dimension ref="A1:X32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6724,29 +6724,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="21" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="20" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="21" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="21" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6767,115 +6765,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -6892,72 +6880,66 @@
         <v>3.080330202075708e-08</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-1.78411212514846</v>
+        <v>2.070383992220929e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>5.994446483386799</v>
+        <v>6.188103455431914e-07</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>2.070383992220929e-07</v>
+        <v>0.07543494130100875</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>6.188103455431914e-07</v>
+        <v>0.365477625961117</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.07543494130100875</v>
+        <v>0.1389216278277349</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.365477625961117</v>
+        <v>1.935005701223881</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.1389216278277349</v>
+        <v>3.401660464466103</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.958855835010104</v>
+        <v>7.864781390246953</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>3.401660464466103</v>
+        <v>5.199457266501183e-19</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>7.864781390246953</v>
+        <v>92281387371.41516</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>5.199457266501183e-19</v>
+        <v>1.308807197777619e-09</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>92281387371.41516</v>
+        <v>4427.782132752067</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>1.308807197777619e-09</v>
+        <v>2.153510341312605e-05</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>4427.782132752067</v>
+        <v>10.55045651794578</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>2.153510341312605e-05</v>
+        <v>1.374315717123555</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>10.55045651794578</v>
+        <v>0.002397118289628298</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.374315717123555</v>
+        <v>7.805140066624315</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.002397118289628298</v>
+        <v>0.9598018020561015</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>7.805140066624315</v>
+        <v>0.738771466891414</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9598018020561015</v>
+        <v>316</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>0.738771466891414</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>316</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>14.43730565432255</v>
       </c>
     </row>
@@ -6972,72 +6954,66 @@
         <v>2.53150895110554e-08</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-0.6446955596787511</v>
+        <v>1.45885962390998e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>0.8808323616059566</v>
+        <v>6.205836342654223e-07</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.45885962390998e-07</v>
+        <v>0.05075013386735971</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>6.205836342654223e-07</v>
+        <v>0.3245314506670816</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.05075013386735971</v>
+        <v>0.1076245205976463</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.3245314506670816</v>
+        <v>1.932067364175231</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.1076245205976463</v>
+        <v>3.742863633763049</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.960066319236293</v>
+        <v>8.040743981673327</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>3.742863633763049</v>
+        <v>4.97437881817013e-19</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>8.040743981673327</v>
+        <v>95501047755.70454</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>4.97437881817013e-19</v>
+        <v>1.26350201629703e-09</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>95501047755.70454</v>
+        <v>4536.857390122957</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>1.26350201629703e-09</v>
+        <v>1.884311541878387e-05</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>4536.857390122957</v>
+        <v>12.28915500521529</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>1.884311541878387e-05</v>
+        <v>1.240632323645052</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>12.28915500521529</v>
+        <v>0.002845750052104596</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.240632323645052</v>
+        <v>7.833375565976273</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.002845750052104596</v>
+        <v>0.9592177825755326</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>7.833375565976273</v>
+        <v>0.7391055389365563</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9592177825755326</v>
+        <v>322</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>0.7391055389365563</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>322</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>14.31374757394222</v>
       </c>
     </row>
@@ -7052,72 +7028,66 @@
         <v>2.302419216095412e-08</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.06522184293574552</v>
+        <v>1.01677437691009e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-1.109575990258544</v>
+        <v>6.214672560619981e-07</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.01677437691009e-07</v>
+        <v>0.02292671377908507</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>6.214672560619981e-07</v>
+        <v>0.2603930837433379</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.02292671377908507</v>
+        <v>0.06815897524367122</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.2603930837433379</v>
+        <v>1.932309584391247</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.06815897524367122</v>
+        <v>3.543516572728637</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.964522014408785</v>
+        <v>8.308390026518385</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>3.543516572728637</v>
+        <v>4.659052160494621e-19</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>8.308390026518385</v>
+        <v>96490355181.00208</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>4.659052160494621e-19</v>
+        <v>1.247310909257548e-09</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>96490355181.00208</v>
+        <v>4337.758632200843</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>1.247310909257548e-09</v>
+        <v>2.202714766180826e-05</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>4337.758632200843</v>
+        <v>10.71880781196636</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>2.202714766180826e-05</v>
+        <v>1.240454296775401</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>10.71880781196636</v>
+        <v>0.002530761572006375</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.240454296775401</v>
+        <v>7.554291870169866</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.002530761572006375</v>
+        <v>0.958053744851872</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>7.554291870169866</v>
+        <v>0.7797962772650067</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.958053744851872</v>
+        <v>320</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>0.7797962772650067</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>320</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>12.93715322202053</v>
       </c>
     </row>
@@ -7132,72 +7102,66 @@
         <v>2.254217624055891e-08</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.03422948297946037</v>
+        <v>7.130264513801832e-08</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-1.332265895420481</v>
+        <v>6.217031699045337e-07</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>7.130264513801832e-08</v>
+        <v>-0.001021962745235149</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>6.217031699045337e-07</v>
+        <v>0.1940458624400431</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.001021962745235149</v>
+        <v>0.03756221434812597</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1940458624400431</v>
+        <v>1.935792325796698</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.03756221434812597</v>
+        <v>3.290471862024444</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.964848710593072</v>
+        <v>8.358363269889686</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>3.290471862024444</v>
+        <v>4.550551312513308e-19</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>8.358363269889686</v>
+        <v>96912135897.74165</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>4.550551312513308e-19</v>
+        <v>1.242654366756914e-09</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>96912135897.74165</v>
+        <v>4273.860538961524</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>1.242654366756914e-09</v>
+        <v>3.12652537921131e-05</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>4273.860538961524</v>
+        <v>8.957432778160877</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>3.12652537921131e-05</v>
+        <v>1.270768633020497</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>8.957432778160877</v>
+        <v>0.002508586458919815</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.270768633020497</v>
+        <v>7.193651897720049</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.002508586458919815</v>
+        <v>0.9572549666817531</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>7.193651897720049</v>
+        <v>0.719500953755563</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9572549666817531</v>
+        <v>343</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>0.719500953755563</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>343</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>11.63303471038443</v>
       </c>
     </row>
@@ -7212,72 +7176,66 @@
         <v>2.283793959185961e-08</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.01279144097477683</v>
+        <v>7.246561574505689e-08</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-1.325029469186367</v>
+        <v>6.214674939272546e-07</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>7.246561574505689e-08</v>
+        <v>-0.01857599257021845</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>6.214674939272546e-07</v>
+        <v>0.1394763562396991</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.01857599257021845</v>
+        <v>0.01975239024306905</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1394763562396991</v>
+        <v>1.93407996573243</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.01975239024306905</v>
+        <v>3.481413706354716</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.968420053630053</v>
+        <v>8.206037520502571</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>3.481413706354716</v>
+        <v>4.333796018806688e-19</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>8.206037520502571</v>
+        <v>96240028546.0661</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>4.333796018806688e-19</v>
+        <v>1.241925863457402e-09</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>96240028546.0661</v>
+        <v>4014.023886876833</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>1.241925863457402e-09</v>
+        <v>4.138497994712821e-05</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>4014.023886876833</v>
+        <v>8.785406972314002</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>4.138497994712821e-05</v>
+        <v>1.333463107451301</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>8.785406972314002</v>
+        <v>0.003194232454320821</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.333463107451301</v>
+        <v>6.937617479733751</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.003194232454320821</v>
+        <v>0.9557803438093969</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>6.937617479733751</v>
+        <v>0.7460593819865584</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9557803438093969</v>
+        <v>364</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>0.7460593819865584</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>364</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>11.05422896938061</v>
       </c>
     </row>
@@ -7292,72 +7250,66 @@
         <v>2.334644283978456e-08</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.0132348414031044</v>
+        <v>7.361080609635248e-08</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.348477876385202</v>
+        <v>6.208886041029389e-07</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>7.361080609635248e-08</v>
+        <v>-0.03066266389322609</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>6.208886041029389e-07</v>
+        <v>0.09893215375323156</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.03066266389322609</v>
+        <v>0.01070539416941024</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.09893215375323156</v>
+        <v>1.936191586124458</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.01070539416941024</v>
+        <v>3.118078486627057</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.967086698406651</v>
+        <v>8.313549382122071</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>3.118078486627057</v>
+        <v>4.222430416684705e-19</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>8.313549382122071</v>
+        <v>100104934519.652</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>4.222430416684705e-19</v>
+        <v>1.19488597692483e-09</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>100104934519.652</v>
+        <v>4231.296640260612</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>1.19488597692483e-09</v>
+        <v>4.236317620482422e-05</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>4231.296640260612</v>
+        <v>9.788284897198361</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>4.236317620482422e-05</v>
+        <v>1.31886161123646</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>9.788284897198361</v>
+        <v>0.004058837993088382</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.31886161123646</v>
+        <v>7.026445147703519</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.004058837993088382</v>
+        <v>0.9568143075751101</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>7.026445147703519</v>
+        <v>0.7731247718518449</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9568143075751101</v>
+        <v>400</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>0.7731247718518449</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>400</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>11.57508122632205</v>
       </c>
     </row>
@@ -7372,72 +7324,66 @@
         <v>2.381891217185711e-08</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.04257087678884526</v>
+        <v>7.471746751486796e-08</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-1.360565535358799</v>
+        <v>6.200605934317973e-07</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>7.471746751486796e-08</v>
+        <v>-0.03892715284865094</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>6.200605934317973e-07</v>
+        <v>0.06964449259382073</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.03892715284865094</v>
+        <v>0.00635513491902541</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.06964449259382073</v>
+        <v>1.936341122808554</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.00635513491902541</v>
+        <v>3.389615286835415</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.966963808475669</v>
+        <v>8.39076414986932</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>3.389615286835415</v>
+        <v>4.145075401487971e-19</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>8.39076414986932</v>
+        <v>101938310668.2426</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>4.145075401487971e-19</v>
+        <v>1.174107283968144e-09</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>101938310668.2426</v>
+        <v>4307.32160374238</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>1.174107283968144e-09</v>
+        <v>3.707293325479534e-05</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>4307.32160374238</v>
+        <v>12.37259505183093</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>3.707293325479534e-05</v>
+        <v>1.140622214820159</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>12.37259505183093</v>
+        <v>0.005675165711191079</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.140622214820159</v>
+        <v>7.234714461313322</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.005675165711191079</v>
+        <v>0.9587603056769031</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>7.234714461313322</v>
+        <v>0.7453248581488949</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9587603056769031</v>
+        <v>406</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>0.7453248581488949</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>406</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>12.53600421678513</v>
       </c>
     </row>
@@ -7452,72 +7398,66 @@
         <v>2.416731114206191e-08</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.08350741046901811</v>
+        <v>7.578058532227493e-08</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-1.346604885754676</v>
+        <v>6.190525662531854e-07</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>7.578058532227493e-08</v>
+        <v>-0.04465230758016782</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>6.190525662531854e-07</v>
+        <v>0.04846765184148642</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.04465230758016782</v>
+        <v>0.004338255034853717</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.04846765184148642</v>
+        <v>1.938786422835456</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.004338255034853717</v>
+        <v>3.136773438134365</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.969048771701783</v>
+        <v>8.345760696977138</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>3.136773438134365</v>
+        <v>4.189899514294838e-19</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>8.345760696977138</v>
+        <v>101337692291.0993</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>4.189899514294838e-19</v>
+        <v>1.182146418101931e-09</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>101337692291.0993</v>
+        <v>4302.745189187693</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>1.182146418101931e-09</v>
+        <v>3.44698715061172e-05</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>4302.745189187693</v>
+        <v>13.28179304984451</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>3.44698715061172e-05</v>
+        <v>1.058344827740974</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>13.28179304984451</v>
+        <v>0.006080693070458106</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.058344827740974</v>
+        <v>7.231894832562797</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.006080693070458106</v>
+        <v>0.9595636850672815</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>7.231894832562797</v>
+        <v>0.7272346167467351</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9595636850672815</v>
+        <v>398</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>0.7272346167467351</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>398</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>12.64271535497591</v>
       </c>
     </row>
@@ -7532,72 +7472,66 @@
         <v>2.437530540111151e-08</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.1240140475277044</v>
+        <v>7.679655693840689e-08</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-1.315959546254846</v>
+        <v>6.179164777869e-07</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>7.679655693840689e-08</v>
+        <v>-0.04863066114090186</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>6.179164777869e-07</v>
+        <v>0.03337112461633079</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.04863066114090186</v>
+        <v>0.003476849319795157</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.03337112461633079</v>
+        <v>1.939526127024438</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.003476849319795157</v>
+        <v>3.008626861928843</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.965647993527008</v>
+        <v>8.431469238794556</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>3.008626861928843</v>
+        <v>3.945388427017452e-19</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>8.431469238794556</v>
+        <v>111516280497.1918</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>3.945388427017452e-19</v>
+        <v>1.077664749262408e-09</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>111516280497.1918</v>
+        <v>4906.438025093214</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>1.077664749262408e-09</v>
+        <v>3.616721889088156e-05</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>4906.438025093214</v>
+        <v>11.53956737788661</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>3.616721889088156e-05</v>
+        <v>1.136487520742302</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>11.53956737788661</v>
+        <v>0.004816085287289497</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.136487520742302</v>
+        <v>7.127449141601234</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.004816085287289497</v>
+        <v>0.9619212157815994</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>7.127449141601234</v>
+        <v>0.7312401602490388</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9619212157815994</v>
+        <v>416</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>0.7312401602490388</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>416</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>12.14131604837256</v>
       </c>
     </row>
@@ -7612,72 +7546,66 @@
         <v>2.445725641434091e-08</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.1589608068984993</v>
+        <v>7.773168275792154e-08</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-1.280236064947933</v>
+        <v>6.166932090270283e-07</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>7.773168275792154e-08</v>
+        <v>-0.05132384950032944</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>6.166932090270283e-07</v>
+        <v>0.02328813339479603</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.05132384950032944</v>
+        <v>0.003176110122414859</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.02328813339479603</v>
+        <v>1.9432943330041</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.003176110122414859</v>
+        <v>3.061425345949564</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.970514579524602</v>
+        <v>9.33299636047712</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>3.061425345949564</v>
+        <v>4.171091897994655e-19</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>9.33299636047712</v>
+        <v>106114741800.591</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>4.171091897994655e-19</v>
+        <v>1.136340320504003e-09</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>106114741800.591</v>
+        <v>4696.790638323145</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>1.136340320504003e-09</v>
+        <v>3.450604181383127e-05</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>4696.790638323145</v>
+        <v>9.91652306394027</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>3.450604181383127e-05</v>
+        <v>1.243424486639084</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>9.91652306394027</v>
+        <v>0.003393235460322003</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.243424486639084</v>
+        <v>7.204627480826506</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.003393235460322003</v>
+        <v>0.9608342271063568</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>7.204627480826506</v>
+        <v>0.745878394084782</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9608342271063568</v>
+        <v>412</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>0.745878394084782</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>412</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>12.62153936723505</v>
       </c>
     </row>
@@ -7692,72 +7620,66 @@
         <v>2.443650353556447e-08</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.1874958022871348</v>
+        <v>7.854747645149485e-08</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-1.246501034972971</v>
+        <v>6.154145925261811e-07</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>7.854747645149485e-08</v>
+        <v>-0.05310307169711486</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>6.154145925261811e-07</v>
+        <v>0.01712250193896572</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.05310307169711486</v>
+        <v>0.003113285403046173</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.01712250193896572</v>
+        <v>1.940204892540627</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.003113285403046173</v>
+        <v>3.436328332039999</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.969183838705017</v>
+        <v>8.634399825498875</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>3.436328332039999</v>
+        <v>4.873350421837285e-19</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>8.634399825498875</v>
+        <v>95440573275.9194</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>4.873350421837285e-19</v>
+        <v>1.263653621670747e-09</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>95440573275.9194</v>
+        <v>4439.087641025616</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>1.263653621670747e-09</v>
+        <v>2.887593505387046e-05</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>4439.087641025616</v>
+        <v>9.744911241102532</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>2.887593505387046e-05</v>
+        <v>1.304555948680157</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>9.744911241102532</v>
+        <v>0.002742153941721539</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.304555948680157</v>
+        <v>7.458000720763588</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.002742153941721539</v>
+        <v>0.9620247455455255</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>7.458000720763588</v>
+        <v>0.7302162703157852</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9620247455455255</v>
+        <v>406</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>0.7302162703157852</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>406</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>14.09201388173698</v>
       </c>
     </row>
@@ -7772,72 +7694,66 @@
         <v>2.433487451654048e-08</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.2105826674959853</v>
+        <v>7.923744994696909e-08</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-1.217649707750257</v>
+        <v>6.141041849004622e-07</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>7.923744994696909e-08</v>
+        <v>-0.05424011465481291</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>6.141041849004622e-07</v>
+        <v>0.01403222725550373</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.05424011465481291</v>
+        <v>0.003139229920823256</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.01403222725550373</v>
+        <v>1.938541084848463</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.003139229920823256</v>
+        <v>3.58197307536158</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.970009534672414</v>
+        <v>7.887739790869164</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>3.58197307536158</v>
+        <v>5.923160712825733e-19</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>7.887739790869164</v>
+        <v>79499022474.7345</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>5.923160712825733e-19</v>
+        <v>1.519891523400627e-09</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>79499022474.7345</v>
+        <v>3743.493588465626</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>1.519891523400627e-09</v>
+        <v>2.702525611479228e-05</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>3743.493588465626</v>
+        <v>11.42177907449693</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>2.702525611479228e-05</v>
+        <v>1.204214887669958</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>11.42177907449693</v>
+        <v>0.003525634843026285</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.204214887669958</v>
+        <v>7.559489980433248</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.003525634843026285</v>
+        <v>0.9621586187330201</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>7.559489980433248</v>
+        <v>0.7277642895083021</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9621586187330201</v>
+        <v>367</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>0.7277642895083021</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>367</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>15.07735429023683</v>
       </c>
     </row>
@@ -7852,72 +7768,66 @@
         <v>2.416973093388355e-08</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.2297445771207445</v>
+        <v>7.963524392364421e-08</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-1.194205238124349</v>
+        <v>6.127794972864659e-07</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>7.963524392364421e-08</v>
+        <v>-0.05490922234831916</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>6.127794972864659e-07</v>
+        <v>0.01319597621174289</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.05490922234831916</v>
+        <v>0.003189501425453267</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.01319597621174289</v>
+        <v>1.944113637564881</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.003189501425453267</v>
+        <v>3.749646503979079</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.972340079416875</v>
+        <v>6.822303591929669</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>3.749646503979079</v>
+        <v>6.275977978895622e-19</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>6.822303591929669</v>
+        <v>71461905552.89915</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>6.275977978895622e-19</v>
+        <v>1.695393184832096e-09</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>71461905552.89915</v>
+        <v>3205.018910293557</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>1.695393184832096e-09</v>
+        <v>2.636587725235474e-05</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>3205.018910293557</v>
+        <v>13.16651789001316</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>2.636587725235474e-05</v>
+        <v>1.029949785243182</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>13.16651789001316</v>
+        <v>0.004570714480627064</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.029949785243182</v>
+        <v>7.501429748874946</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.004570714480627064</v>
+        <v>0.961157845222385</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>7.501429748874946</v>
+        <v>0.7851757935280097</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.961157845222385</v>
+        <v>332</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>0.7851757935280097</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>332</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>15.42933632790258</v>
       </c>
     </row>
@@ -7932,72 +7842,66 @@
         <v>2.395506935630608e-08</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.2463334572904249</v>
+        <v>7.950449498401156e-08</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-1.175477853630441</v>
+        <v>6.11452747047802e-07</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>7.950449498401156e-08</v>
+        <v>-0.05531151416687004</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>6.11452747047802e-07</v>
+        <v>0.01350672415719742</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.05531151416687004</v>
+        <v>0.003242082047809045</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.01350672415719742</v>
+        <v>1.945014013944602</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.003242082047809045</v>
+        <v>3.513567419545702</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.977366685280239</v>
+        <v>6.76577917684634</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>3.513567419545702</v>
+        <v>6.3812808065994e-19</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>6.76577917684634</v>
+        <v>71596281188.77838</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>6.3812808065994e-19</v>
+        <v>1.691136777339988e-09</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>71596281188.77838</v>
+        <v>3271.062077262469</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>1.691136777339988e-09</v>
+        <v>3.020343703728278e-05</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>3271.062077262469</v>
+        <v>12.15655974874921</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>3.020343703728278e-05</v>
+        <v>1.109763915170588</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>12.15655974874921</v>
+        <v>0.004463522668786694</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.109763915170588</v>
+        <v>7.394280552599324</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.004463522668786694</v>
+        <v>0.9609499411909103</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>7.394280552599324</v>
+        <v>0.8136436904751915</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9609499411909103</v>
+        <v>354</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>0.8136436904751915</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>354</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>14.77408388680268</v>
       </c>
     </row>
@@ -8012,72 +7916,66 @@
         <v>2.370292448210673e-08</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.2611980290758558</v>
+        <v>7.901673293589065e-08</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-1.160321987510855</v>
+        <v>6.101312910231597e-07</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>7.901673293589065e-08</v>
+        <v>-0.05555762076670931</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>6.101312910231597e-07</v>
+        <v>0.01423732184801982</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.05555762076670931</v>
+        <v>0.003289580560721392</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.01423732184801982</v>
+        <v>1.939273171308779</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.003289580560721392</v>
+        <v>3.456788716773329</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.976753242238273</v>
+        <v>7.078037875730357</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>3.456788716773329</v>
+        <v>5.83066016433987e-19</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>7.078037875730357</v>
+        <v>77657972740.22818</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>5.83066016433987e-19</v>
+        <v>1.556121284961118e-09</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>77657972740.22818</v>
+        <v>3516.331634978771</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>1.556121284961118e-09</v>
+        <v>3.250962749977396e-05</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>3516.331634978771</v>
+        <v>10.46070276253328</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>3.250962749977396e-05</v>
+        <v>1.252405306952812</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>10.46070276253328</v>
+        <v>0.003557408325997845</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.252405306952812</v>
+        <v>7.265571972000053</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.003557408325997845</v>
+        <v>0.9588463619426736</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>7.265571972000053</v>
+        <v>0.7877463541773655</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9588463619426736</v>
+        <v>359</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>0.7877463541773655</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>359</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>13.75586610751663</v>
       </c>
     </row>
@@ -8092,72 +7990,66 @@
         <v>2.342058196353732e-08</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.2750211076661163</v>
+        <v>7.822749433861502e-08</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-1.147918995352977</v>
+        <v>6.088205391029938e-07</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>7.822749433861502e-08</v>
+        <v>-0.05566587849969555</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>6.088205391029938e-07</v>
+        <v>0.01521762268016314</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.05566587849969555</v>
+        <v>0.003330463986279171</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.01521762268016314</v>
+        <v>1.93969796014103</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.003330463986279171</v>
+        <v>3.355238043086108</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.976517356165005</v>
+        <v>7.344970367701974</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>3.355238043086108</v>
+        <v>5.414562837072719e-19</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>7.344970367701974</v>
+        <v>82305384612.1579</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>5.414562837072719e-19</v>
+        <v>1.467412489341914e-09</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>82305384612.1579</v>
+        <v>3667.920344152358</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>1.467412489341914e-09</v>
+        <v>2.65523751186349e-05</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>3667.920344152358</v>
+        <v>9.074566360109836</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>2.65523751186349e-05</v>
+        <v>1.304875890204329</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>9.074566360109836</v>
+        <v>0.002186528470954734</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.304875890204329</v>
+        <v>7.195488555173133</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.002186528470954734</v>
+        <v>0.9590404449901491</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>7.195488555173133</v>
+        <v>0.7970532816889829</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9590404449901491</v>
+        <v>351</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>0.7970532816889829</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>351</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>13.08524762482829</v>
       </c>
     </row>
@@ -8172,72 +8064,66 @@
         <v>2.311013650212684e-08</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0.288301868111655</v>
+        <v>7.723206028646931e-08</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>-1.138126858089346</v>
+        <v>6.075248418836397e-07</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>7.723206028646931e-08</v>
+        <v>-0.05569561696762272</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>6.075248418836397e-07</v>
+        <v>0.01641113899666732</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>-0.05569561696762272</v>
+        <v>0.003371518905025731</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.01641113899666732</v>
+        <v>1.935631293218366</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.003371518905025731</v>
+        <v>3.500342973106752</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.969131587783114</v>
+        <v>7.704096348255842</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>3.500342973106752</v>
+        <v>4.921529393440083e-19</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>7.704096348255842</v>
+        <v>90684632151.64105</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>4.921529393440083e-19</v>
+        <v>1.330561873072703e-09</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>90684632151.64105</v>
+        <v>4047.319361838364</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>1.330561873072703e-09</v>
+        <v>3.000083117736282e-05</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>4047.319361838364</v>
+        <v>7.758977788898065</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>3.000083117736282e-05</v>
+        <v>1.264477354726125</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>7.758977788898065</v>
+        <v>0.001806102128178844</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.264477354726125</v>
+        <v>6.804275062413974</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.001806102128178844</v>
+        <v>0.958951699044623</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>6.804275062413974</v>
+        <v>0.8247840152592198</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.958951699044623</v>
+        <v>331</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>0.8247840152592198</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>331</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>11.49574907962328</v>
       </c>
     </row>
@@ -8252,72 +8138,66 @@
         <v>2.277072719305876e-08</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0.3011452270526342</v>
+        <v>7.605699966989091e-08</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-1.131518845590301</v>
+        <v>6.062470456082764e-07</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>7.605699966989091e-08</v>
+        <v>-0.05566569071706121</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>6.062470456082764e-07</v>
+        <v>0.01781392859372965</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>-0.05566569071706121</v>
+        <v>0.003416158694548788</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.01781392859372965</v>
+        <v>1.937275166228112</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.003416158694548788</v>
+        <v>3.623551848498076</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.970935768001845</v>
+        <v>7.607208328955323</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>3.623551848498076</v>
+        <v>5.047692315644068e-19</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>7.607208328955323</v>
+        <v>88840521119.80878</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>5.047692315644068e-19</v>
+        <v>1.360025530474982e-09</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>88840521119.80878</v>
+        <v>3983.960915615326</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>1.360025530474982e-09</v>
+        <v>3.985312039874119e-05</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>3983.960915615326</v>
+        <v>7.503142075719264</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>3.985312039874119e-05</v>
+        <v>1.198516085031333</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>7.503142075719264</v>
+        <v>0.002243616738713823</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.198516085031333</v>
+        <v>6.363800170909598</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.002243616738713823</v>
+        <v>0.9585641626490484</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>6.363800170909598</v>
+        <v>0.8133079571217762</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9585641626490484</v>
+        <v>295</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>0.8133079571217762</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>295</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>9.705907224144152</v>
       </c>
     </row>
@@ -8332,72 +8212,66 @@
         <v>2.240296496040012e-08</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>0.3140793660819163</v>
+        <v>7.455375851638894e-08</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>-1.127993966610151</v>
+        <v>6.049917852822275e-07</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>7.455375851638894e-08</v>
+        <v>-0.05542076232089945</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>6.049917852822275e-07</v>
+        <v>0.01953089815627115</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>-0.05542076232089945</v>
+        <v>0.003452976448639998</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.01953089815627115</v>
+        <v>1.93870530434886</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.003452976448639998</v>
+        <v>3.133328359353295</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.969840891673252</v>
+        <v>8.100669488827851</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>3.133328359353295</v>
+        <v>6.812280117964157e-19</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>8.100669488827851</v>
+        <v>69289335592.08101</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>6.812280117964157e-19</v>
+        <v>1.748351386641414e-09</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>69289335592.08101</v>
+        <v>3270.58387762221</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>1.748351386641414e-09</v>
+        <v>5.510649156998004e-05</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>3270.58387762221</v>
+        <v>7.635502575625105</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>5.510649156998004e-05</v>
+        <v>1.447193659148867</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>7.635502575625105</v>
+        <v>0.003212758031358545</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.447193659148867</v>
+        <v>6.007607821102339</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.003212758031358545</v>
+        <v>0.959500976731312</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>6.007607821102339</v>
+        <v>0.799413283406714</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.959500976731312</v>
+        <v>243</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>0.799413283406714</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>243</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>8.143184388772394</v>
       </c>
     </row>
@@ -8412,72 +8286,66 @@
         <v>2.200817677127776e-08</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>0.328293852113409</v>
+        <v>7.288967109386521e-08</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>-1.126263112984371</v>
+        <v>6.037663477052975e-07</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>7.288967109386521e-08</v>
+        <v>-0.05487595410019903</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>6.037663477052975e-07</v>
+        <v>0.02182815538350689</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>-0.05487595410019903</v>
+        <v>0.003487796314885363</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.02182815538350689</v>
+        <v>1.935042260441252</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.003487796314885363</v>
+        <v>2.808784837410642</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.964969898191729</v>
+        <v>7.014285877183315</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>2.808784837410642</v>
+        <v>1.293435314626938e-18</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>7.014285877183315</v>
+        <v>36274643561.27283</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>1.293435314626938e-18</v>
+        <v>3.340219222436522e-09</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>36274643561.27283</v>
+        <v>1701.966555437902</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>3.340219222436522e-09</v>
+        <v>8.762410214620234e-05</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>1701.966555437902</v>
+        <v>9.393544532596334</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>8.762410214620234e-05</v>
+        <v>1.58207520598568</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>9.393544532596334</v>
+        <v>0.007731835011941464</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.58207520598568</v>
+        <v>5.57180916986255</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.007731835011941464</v>
+        <v>0.9612608590244233</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>5.57180916986255</v>
+        <v>0.8949970502009884</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9612608590244233</v>
+        <v>195</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>0.8949970502009884</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>195</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>6.955476970166496</v>
       </c>
     </row>
@@ -8492,72 +8360,66 @@
         <v>2.158250717412806e-08</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0.3449471312083563</v>
+        <v>7.117502770799915e-08</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-1.125186045378705</v>
+        <v>6.025792190688686e-07</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>7.117502770799915e-08</v>
+        <v>-0.05396325081808707</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>6.025792190688686e-07</v>
+        <v>0.0252510804912201</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>-0.05396325081808707</v>
+        <v>0.003549426684811083</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.0252510804912201</v>
+        <v>1.93055287415985</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.003549426684811083</v>
+        <v>2.543060568189636</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.959976566446272</v>
+        <v>6.576405084097779</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>2.543060568189636</v>
+        <v>2.525974905460008e-18</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>6.576405084097779</v>
+        <v>18777287862.70407</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>2.525974905460008e-18</v>
+        <v>6.459439060740165e-09</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>18777287862.70407</v>
+        <v>890.6247507265688</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>6.459439060740165e-09</v>
+        <v>0.0001169572321778537</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>890.6247507265688</v>
+        <v>11.2354393393322</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>0.0001169572321778537</v>
+        <v>1.407846900209735</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>11.2354393393322</v>
+        <v>0.01476410756611073</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.407846900209735</v>
+        <v>5.098473384248916</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.01476410756611073</v>
+        <v>0.9618393513631642</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>5.098473384248916</v>
+        <v>0.9325664604741311</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9618393513631642</v>
+        <v>158</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>0.9325664604741311</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>158</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>5.801888601143912</v>
       </c>
     </row>
@@ -8572,72 +8434,66 @@
         <v>2.111845148677026e-08</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>0.364874803407155</v>
+        <v>6.944433837101687e-08</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>-1.123544765989033</v>
+        <v>6.014402325754969e-07</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>6.944433837101687e-08</v>
+        <v>-0.052617604919283</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>6.014402325754969e-07</v>
+        <v>0.03016201195804561</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>-0.052617604919283</v>
+        <v>0.003677805370474202</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.03016201195804561</v>
+        <v>1.934980090840956</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.003677805370474202</v>
+        <v>2.548402151695541</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.964758005373161</v>
+        <v>5.37207557985881</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>2.548402151695541</v>
+        <v>3.957092992989452e-18</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>5.37207557985881</v>
+        <v>12679873987.72122</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>3.957092992989452e-18</v>
+        <v>9.610275435209479e-09</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>12679873987.72122</v>
+        <v>636.2182629299971</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>9.610275435209479e-09</v>
+        <v>0.0001274656168906227</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>636.2182629299971</v>
+        <v>12.28719430152158</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>0.0001274656168906227</v>
+        <v>1.1408672669205</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>12.28719430152158</v>
+        <v>0.01924413984004377</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.1408672669205</v>
+        <v>4.453079692923352</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.01924413984004377</v>
+        <v>0.9623269273269792</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>4.453079692923352</v>
+        <v>0.9064531875980615</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9623269273269792</v>
+        <v>138</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>0.9064531875980615</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>138</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>4.189642915198242</v>
       </c>
     </row>
@@ -8652,72 +8508,66 @@
         <v>2.060927561335833e-08</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>0.3882847080036604</v>
+        <v>6.77002069530439e-08</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>-1.119399545428049</v>
+        <v>6.003600945651715e-07</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>6.77002069530439e-08</v>
+        <v>-0.05081857854905275</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>6.003600945651715e-07</v>
+        <v>0.03650345982547611</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>-0.05081857854905275</v>
+        <v>0.003914094051603248</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.03650345982547611</v>
+        <v>1.929937282539958</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.003914094051603248</v>
+        <v>2.535187340412191</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.955849923946943</v>
+        <v>5.061356291379784</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>2.535187340412191</v>
+        <v>4.457862451861298e-18</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>5.061356291379784</v>
+        <v>11173407066.03321</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>4.457862451861298e-18</v>
+        <v>1.089495547300088e-08</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>11173407066.03321</v>
+        <v>556.5419513144278</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>1.089495547300088e-08</v>
+        <v>0.0001435200387357354</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>556.5419513144278</v>
+        <v>12.63154968722439</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>0.0001435200387357354</v>
+        <v>1.001823035807941</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>12.63154968722439</v>
+        <v>0.0228994901178383</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.001823035807941</v>
+        <v>3.775872245976974</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.0228994901178383</v>
+        <v>0.9623977170217269</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>3.775872245976974</v>
+        <v>0.9596108587312545</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9623977170217269</v>
+        <v>116</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>0.9596108587312545</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>116</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>2.985269154090688</v>
       </c>
     </row>
@@ -8732,72 +8582,66 @@
         <v>2.005438867699128e-08</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>0.4142709271686436</v>
+        <v>6.594169743148518e-08</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>-1.110576166823155</v>
+        <v>5.99346511913522e-07</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>6.594169743148518e-08</v>
+        <v>-0.04883555889716115</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>5.99346511913522e-07</v>
+        <v>0.04295095397728044</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>-0.04883555889716115</v>
+        <v>0.00422863726102346</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>0.04295095397728044</v>
+        <v>1.92838672462381</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>0.00422863726102346</v>
+        <v>2.505617910145614</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>1.9507330074924</v>
+        <v>4.71851305442815</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>2.505617910145614</v>
+        <v>4.682557293987822e-18</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>4.71851305442815</v>
+        <v>10383302306.37114</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>4.682557293987822e-18</v>
+        <v>1.171870650045961e-08</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>10383302306.37114</v>
+        <v>504.8403940078731</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>1.171870650045961e-08</v>
+        <v>0.0001609262396977485</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>504.8403940078731</v>
+        <v>11.30154478658943</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>0.0001609262396977485</v>
+        <v>1.129465031875984</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>11.30154478658943</v>
+        <v>0.02055429021638593</v>
       </c>
       <c r="T25" s="2" t="n">
-        <v>1.129465031875984</v>
+        <v>3.522406687797761</v>
       </c>
       <c r="U25" s="2" t="n">
-        <v>0.02055429021638593</v>
+        <v>0.9617481406662922</v>
       </c>
       <c r="V25" s="2" t="n">
-        <v>3.522406687797761</v>
+        <v>1.140017480913719</v>
       </c>
       <c r="W25" s="2" t="n">
-        <v>0.9617481406662922</v>
+        <v>113</v>
       </c>
       <c r="X25" s="2" t="n">
-        <v>1.140017480913719</v>
-      </c>
-      <c r="Y25" s="2" t="n">
-        <v>113</v>
-      </c>
-      <c r="Z25" s="2" t="n">
         <v>2.176392441225141</v>
       </c>
     </row>
@@ -8812,72 +8656,66 @@
         <v>1.94634495442903e-08</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>0.4413780392783818</v>
+        <v>6.4102032037996e-08</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>-1.095304181195982</v>
+        <v>5.984005677098717e-07</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>6.4102032037996e-08</v>
+        <v>-0.04691572014136353</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>5.984005677098717e-07</v>
+        <v>0.04839060735780999</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>-0.04691572014136353</v>
+        <v>0.004541811990036221</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0.04839060735780999</v>
+        <v>1.924985630494788</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>0.004541811990036221</v>
+        <v>2.347439671751813</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>1.94563995221966</v>
+        <v>5.823213931310976</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>2.347439671751813</v>
+        <v>7.465134566767447e-18</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>5.823213931310976</v>
+        <v>6545825840.346326</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>7.465134566767447e-18</v>
+        <v>1.86044313909486e-08</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>6545825840.346326</v>
+        <v>319.864861128241</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>1.86044313909486e-08</v>
+        <v>0.0001957262247257617</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>319.864861128241</v>
+        <v>9.327717301314149</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>0.0001957262247257617</v>
+        <v>1.55887897146138</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>9.327717301314149</v>
+        <v>0.01702941659403883</v>
       </c>
       <c r="T26" s="2" t="n">
-        <v>1.55887897146138</v>
+        <v>3.244362432639224</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>0.01702941659403883</v>
+        <v>0.9622314820864836</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>3.244362432639224</v>
+        <v>1.186092077492992</v>
       </c>
       <c r="W26" s="2" t="n">
-        <v>0.9622314820864836</v>
+        <v>111</v>
       </c>
       <c r="X26" s="2" t="n">
-        <v>1.186092077492992</v>
-      </c>
-      <c r="Y26" s="2" t="n">
-        <v>111</v>
-      </c>
-      <c r="Z26" s="2" t="n">
         <v>1.31948553565501</v>
       </c>
     </row>
@@ -8892,72 +8730,66 @@
         <v>1.885206564086788e-08</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>0.4686641176675119</v>
+        <v>6.221535005830626e-08</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>-1.072569089086595</v>
+        <v>5.975166222765981e-07</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>6.221535005830626e-08</v>
+        <v>-0.04543191342768765</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>5.975166222765981e-07</v>
+        <v>0.0521586425426295</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>-0.04543191342768765</v>
+        <v>0.004783941404238643</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>0.0521586425426295</v>
+        <v>1.922712276117179</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>0.004783941404238643</v>
+        <v>2.332806389839663</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>1.942677304729965</v>
+        <v>4.558051546706863</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>2.332806389839663</v>
+        <v>1.242630146118542e-17</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>4.558051546706863</v>
+        <v>3727524334.251863</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>1.242630146118542e-17</v>
+        <v>3.2466786411259e-08</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>3727524334.251863</v>
+        <v>172.6564710271254</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>3.2466786411259e-08</v>
+        <v>0.0002141351954544171</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>172.6564710271254</v>
+        <v>9.602902041217662</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>0.0002141351954544171</v>
+        <v>1.549889578466358</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>9.602902041217662</v>
+        <v>0.01974663285642866</v>
       </c>
       <c r="T27" s="2" t="n">
-        <v>1.549889578466358</v>
+        <v>2.922684216394384</v>
       </c>
       <c r="U27" s="2" t="n">
-        <v>0.01974663285642866</v>
+        <v>0.9617081684083664</v>
       </c>
       <c r="V27" s="2" t="n">
-        <v>2.922684216394384</v>
+        <v>1.247552228104989</v>
       </c>
       <c r="W27" s="2" t="n">
-        <v>0.9617081684083664</v>
+        <v>107</v>
       </c>
       <c r="X27" s="2" t="n">
-        <v>1.247552228104989</v>
-      </c>
-      <c r="Y27" s="2" t="n">
-        <v>107</v>
-      </c>
-      <c r="Z27" s="2" t="n">
         <v>0.7748427388077983</v>
       </c>
     </row>
@@ -8972,72 +8804,66 @@
         <v>1.823394823412991e-08</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>0.4958235852462741</v>
+        <v>6.034728330358198e-08</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>-1.04258283565944</v>
+        <v>5.966839986766853e-07</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>6.034728330358198e-08</v>
+        <v>-0.04443484348537127</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>5.966839986766853e-07</v>
+        <v>0.05483985410396849</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>-0.04443484348537127</v>
+        <v>0.004981374503637757</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0.05483985410396849</v>
+        <v>1.917534937929533</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>0.004981374503637757</v>
+        <v>2.326334733880716</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>1.938835095081731</v>
+        <v>4.154375295772473</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>2.326334733880716</v>
+        <v>1.495852927905769e-17</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>4.154375295772473</v>
+        <v>3121704193.234372</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>1.495852927905769e-17</v>
+        <v>3.880506529730612e-08</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>3121704193.234372</v>
+        <v>145.7714223379512</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>3.880506529730612e-08</v>
+        <v>0.0001999779518150598</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>145.7714223379512</v>
+        <v>11.04599742157425</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>0.0001999779518150598</v>
+        <v>1.176679801820163</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>11.04599742157425</v>
+        <v>0.02440012161894604</v>
       </c>
       <c r="T28" s="2" t="n">
-        <v>1.176679801820163</v>
+        <v>2.700028826987523</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>0.02440012161894604</v>
+        <v>0.9616193803004096</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>2.700028826987523</v>
+        <v>1.240977530760999</v>
       </c>
       <c r="W28" s="2" t="n">
-        <v>0.9616193803004096</v>
+        <v>105</v>
       </c>
       <c r="X28" s="2" t="n">
-        <v>1.240977530760999</v>
-      </c>
-      <c r="Y28" s="2" t="n">
-        <v>105</v>
-      </c>
-      <c r="Z28" s="2" t="n">
         <v>0.5910102499227798</v>
       </c>
     </row>
@@ -9052,72 +8878,66 @@
         <v>1.761602281549506e-08</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>0.5227166061665773</v>
+        <v>5.856813641940465e-08</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>-1.006122068682761</v>
+        <v>5.958934855778738e-07</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>5.856813641940465e-08</v>
+        <v>-0.04381857450319587</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>5.958934855778738e-07</v>
+        <v>0.05711533385955343</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>-0.04381857450319587</v>
+        <v>0.005181834409467465</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>0.05711533385955343</v>
+        <v>1.919993344072199</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>0.005181834409467465</v>
+        <v>2.454801755425231</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>1.94043034217625</v>
+        <v>4.033888732389359</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>2.454801755425231</v>
+        <v>1.586545458752605e-17</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>4.033888732389359</v>
+        <v>2953500721.455359</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>1.586545458752605e-17</v>
+        <v>4.103528445138517e-08</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>2953500721.455359</v>
+        <v>138.39700214981</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>4.103528445138517e-08</v>
+        <v>0.0002022952941244296</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>138.39700214981</v>
+        <v>12.31164561274824</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>0.0002022952941244296</v>
+        <v>1.04002934629174</v>
       </c>
       <c r="S29" s="2" t="n">
-        <v>12.31164561274824</v>
+        <v>0.03066323645877433</v>
       </c>
       <c r="T29" s="2" t="n">
-        <v>1.04002934629174</v>
+        <v>2.423956264090291</v>
       </c>
       <c r="U29" s="2" t="n">
-        <v>0.03066323645877433</v>
+        <v>0.9622684311702819</v>
       </c>
       <c r="V29" s="2" t="n">
-        <v>2.423956264090291</v>
+        <v>1.216982516841137</v>
       </c>
       <c r="W29" s="2" t="n">
-        <v>0.9622684311702819</v>
+        <v>95</v>
       </c>
       <c r="X29" s="2" t="n">
-        <v>1.216982516841137</v>
-      </c>
-      <c r="Y29" s="2" t="n">
-        <v>95</v>
-      </c>
-      <c r="Z29" s="2" t="n">
         <v>0.5196660926043669</v>
       </c>
     </row>
@@ -9132,72 +8952,66 @@
         <v>1.699960572042546e-08</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>0.5488507014392159</v>
+        <v>5.692810089011178e-08</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>-0.9649202970361221</v>
+        <v>5.951378150164513e-07</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>5.692810089011178e-08</v>
+        <v>-0.04356482958986709</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>5.951378150164513e-07</v>
+        <v>0.05929041834859779</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>-0.04356482958986709</v>
+        <v>0.005412933087590546</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0.05929041834859779</v>
+        <v>1.916140249554871</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>0.005412933087590546</v>
+        <v>2.433613921229891</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>1.934452395050005</v>
+        <v>3.947056519262002</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>2.433613921229891</v>
+        <v>1.65711885725125e-17</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>3.947056519262002</v>
+        <v>2785718119.196788</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>1.65711885725125e-17</v>
+        <v>4.348353562453162e-08</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>2785718119.196788</v>
+        <v>128.5961591251731</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>4.348353562453162e-08</v>
+        <v>0.0001970411248533878</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>128.5961591251731</v>
+        <v>11.93306021192037</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>0.0001970411248533878</v>
+        <v>1.065117905880266</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>11.93306021192037</v>
+        <v>0.02805824752002979</v>
       </c>
       <c r="T30" s="2" t="n">
-        <v>1.065117905880266</v>
+        <v>2.494773029246691</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>0.02805824752002979</v>
+        <v>0.9625795961687268</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>2.494773029246691</v>
+        <v>1.243293246156957</v>
       </c>
       <c r="W30" s="2" t="n">
-        <v>0.9625795961687268</v>
+        <v>46</v>
       </c>
       <c r="X30" s="2" t="n">
-        <v>1.243293246156957</v>
-      </c>
-      <c r="Y30" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="Z30" s="2" t="n">
         <v>0.4920331908216931</v>
       </c>
     </row>
@@ -9212,72 +9026,66 @@
         <v>1.638413194570956e-08</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>0.5735595985074989</v>
+        <v>5.538135427942034e-08</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>-0.9215291655467173</v>
+        <v>5.944104779169976e-07</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>5.538135427942034e-08</v>
+        <v>-0.04362006545422562</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>5.944104779169976e-07</v>
+        <v>0.06145306479272051</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>-0.04362006545422562</v>
+        <v>0.005678865332152487</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>0.06145306479272051</v>
+        <v>1.920352782246276</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>0.005678865332152487</v>
+        <v>2.459817831360458</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>1.932136157215559</v>
+        <v>3.910767167429619</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>2.459817831360458</v>
+        <v>1.688015495625043e-17</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>3.910767167429619</v>
+        <v>2892211654.30933</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>1.688015495625043e-17</v>
+        <v>4.207353413877821e-08</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>2892211654.30933</v>
+        <v>141.2006099078063</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>4.207353413877821e-08</v>
+        <v>0.0001879856501571173</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>141.2006099078063</v>
+        <v>10.08144914602808</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>0.0001879856501571173</v>
+        <v>1.262316960939527</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>10.08144914602808</v>
+        <v>0.01910603751904909</v>
       </c>
       <c r="T31" s="2" t="n">
-        <v>1.262316960939527</v>
+        <v>2.808644415177431</v>
       </c>
       <c r="U31" s="2" t="n">
-        <v>0.01910603751904909</v>
+        <v>0.9638787928650426</v>
       </c>
       <c r="V31" s="2" t="n">
-        <v>2.808644415177431</v>
+        <v>1.243876228092522</v>
       </c>
       <c r="W31" s="2" t="n">
-        <v>0.9638787928650426</v>
+        <v>21</v>
       </c>
       <c r="X31" s="2" t="n">
-        <v>1.243876228092522</v>
-      </c>
-      <c r="Y31" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z31" s="2" t="n">
         <v>0.4930955383646946</v>
       </c>
     </row>
@@ -9292,72 +9100,66 @@
         <v>1.577047637953926e-08</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>0.5964998549227939</v>
+        <v>5.383602851167646e-08</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>-0.8775689639246167</v>
+        <v>5.937079906063142e-07</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>5.383602851167646e-08</v>
+        <v>-0.04377259196178136</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>5.937079906063142e-07</v>
+        <v>0.06367258347078114</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>-0.04377259196178136</v>
+        <v>0.005969846536057087</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0.06367258347078114</v>
+        <v>1.913984875796408</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>0.005969846536057087</v>
+        <v>2.403297181087514</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>1.928643312017453</v>
+        <v>3.916597538236561</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>2.403297181087514</v>
+        <v>1.68299356993739e-17</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>3.916597538236561</v>
+        <v>2890630184.030606</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>1.68299356993739e-17</v>
+        <v>4.206910641456939e-08</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>2890630184.030606</v>
+        <v>140.6266150682515</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>4.206910641456939e-08</v>
+        <v>0.0002019125496715058</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>140.6266150682515</v>
+        <v>9.142089651065788</v>
       </c>
       <c r="R32" s="2" t="n">
-        <v>0.0002019125496715058</v>
+        <v>1.594741097246689</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>9.142089651065788</v>
+        <v>0.01687540733765746</v>
       </c>
       <c r="T32" s="2" t="n">
-        <v>1.594741097246689</v>
+        <v>2.895975326731751</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>0.01687540733765746</v>
+        <v>0.9646179898756746</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>2.895975326731751</v>
+        <v>1.227162609408768</v>
       </c>
       <c r="W32" s="2" t="n">
-        <v>0.9646179898756746</v>
+        <v>42</v>
       </c>
       <c r="X32" s="2" t="n">
-        <v>1.227162609408768</v>
-      </c>
-      <c r="Y32" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="Z32" s="2" t="n">
         <v>0.4877473422979025</v>
       </c>
     </row>
@@ -9734,7 +9536,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.507581616779425</v>
+        <v>1.522656563975101</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.307673629340754</v>
@@ -9823,7 +9625,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.536149424741803</v>
+        <v>1.540419557533282</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.206363531210351</v>
@@ -9912,7 +9714,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.554342325735891</v>
+        <v>1.559916981446156</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.155360999450313</v>
@@ -10001,7 +9803,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.614013089861442</v>
+        <v>1.619313589090921</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.341691241814221</v>
@@ -10090,7 +9892,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.655599151472318</v>
+        <v>1.655890651947932</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.234395101613949</v>
@@ -10179,7 +9981,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.641195125996719</v>
+        <v>1.640530928768545</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.295982813752685</v>
@@ -10268,7 +10070,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.640941417328236</v>
+        <v>1.628562493525183</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.79758264412516</v>
@@ -10357,7 +10159,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.612775436111993</v>
+        <v>1.606191931016752</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.620155282867149</v>
@@ -10446,7 +10248,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.623227638723309</v>
+        <v>1.617492102132895</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.477150722284071</v>
@@ -10535,7 +10337,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.641572347369228</v>
+        <v>1.633118730130569</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.54782954131614</v>
@@ -10624,7 +10426,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.624597821403584</v>
+        <v>1.627819832978806</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.436050742997958</v>
@@ -10713,7 +10515,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.607527860455157</v>
+        <v>1.616581974054542</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.500287334858387</v>
@@ -10802,7 +10604,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.645978519891441</v>
+        <v>1.65674998502501</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.434776536919883</v>
@@ -10891,7 +10693,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.636926647967828</v>
+        <v>1.640696905804959</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.448647810028352</v>
@@ -10980,7 +10782,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.619575075109018</v>
+        <v>1.620386469669469</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.46633291095195</v>
@@ -11069,7 +10871,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.610972705825855</v>
+        <v>1.613229375745245</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.428206639030758</v>
@@ -11158,7 +10960,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.609551047390014</v>
+        <v>1.612115323688933</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.755199192711385</v>
@@ -11247,7 +11049,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.611098101198549</v>
+        <v>1.616391623526649</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.409079374324812</v>
@@ -11336,7 +11138,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.581849999458296</v>
+        <v>1.590602588563232</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.427893285711782</v>
@@ -11425,7 +11227,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.57218389973598</v>
+        <v>1.57776925748623</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.376148882746861</v>
@@ -11514,7 +11316,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.559215463978519</v>
+        <v>1.569293009612537</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.478004939473873</v>
@@ -11603,7 +11405,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.561937219158771</v>
+        <v>1.568391744812443</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.302731344439068</v>
@@ -11692,7 +11494,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.56602125514422</v>
+        <v>1.574626664535512</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.483452117219488</v>
@@ -11781,7 +11583,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.561046550536812</v>
+        <v>1.569160116073605</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.482622263370323</v>
@@ -11870,7 +11672,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.573291010740948</v>
+        <v>1.577689518924626</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.269741394426495</v>
@@ -11959,7 +11761,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.541720162493678</v>
+        <v>1.544442335530815</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.325926112238594</v>
@@ -12048,7 +11850,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.571629613532861</v>
+        <v>1.572220328098535</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.389335590614272</v>
@@ -12137,7 +11939,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.568131208865268</v>
+        <v>1.566517894061451</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.387935734663169</v>
@@ -12226,7 +12028,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.556959998875164</v>
+        <v>1.555732720932926</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.433805317064353</v>
@@ -12315,7 +12117,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.535499500390225</v>
+        <v>1.536251824701253</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.468885781347562</v>
@@ -12404,7 +12206,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.536653357393519</v>
+        <v>1.535238103885076</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.283868660820165</v>
@@ -12493,7 +12295,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.556567208332743</v>
+        <v>1.552000300413897</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.514421164576827</v>
@@ -12582,7 +12384,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.560661797971703</v>
+        <v>1.553583053170179</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.272870510194191</v>
@@ -12671,7 +12473,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.569392621775017</v>
+        <v>1.562380073738764</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.402573823794171</v>
@@ -12760,7 +12562,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.545439941268001</v>
+        <v>1.540116358184821</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.527800302706838</v>
@@ -12849,7 +12651,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.574368677202762</v>
+        <v>1.564323940130669</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.356383788091157</v>
@@ -12938,7 +12740,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.576447223778027</v>
+        <v>1.565492329662021</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.55368025480017</v>
@@ -13027,7 +12829,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.610261757754399</v>
+        <v>1.593260412485024</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.553777038819203</v>
@@ -13116,7 +12918,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.578617454110741</v>
+        <v>1.564259636604233</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.396335911104959</v>
@@ -13205,7 +13007,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.584997981744209</v>
+        <v>1.567812707702425</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.387332444109193</v>
@@ -13294,7 +13096,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.623899425021892</v>
+        <v>1.60100527640306</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.418585959107184</v>
@@ -13383,7 +13185,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.592420180224196</v>
+        <v>1.570741191352305</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.382254614297426</v>
@@ -13472,7 +13274,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.598193974127245</v>
+        <v>1.575265825694185</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.450468537345108</v>
@@ -13561,7 +13363,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.597304831011506</v>
+        <v>1.581181342814309</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.346647936781629</v>
@@ -13650,7 +13452,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.629125600073935</v>
+        <v>1.610617180776672</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.262487698125215</v>
@@ -13739,7 +13541,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.626282716398491</v>
+        <v>1.612616672826055</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.437176030559474</v>
@@ -13828,7 +13630,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.582424435626826</v>
+        <v>1.573589066465373</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.357124500743191</v>
@@ -13917,7 +13719,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.573043000689966</v>
+        <v>1.56508559677444</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.432815213844409</v>
@@ -14006,7 +13808,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.600560037739061</v>
+        <v>1.589723745393535</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.14356815328398</v>
@@ -14095,7 +13897,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.623806398158157</v>
+        <v>1.607356798738928</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.285631549449172</v>
@@ -14184,7 +13986,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.613792947611067</v>
+        <v>1.609602972958713</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.34731325737108</v>
@@ -14273,7 +14075,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.610333700416889</v>
+        <v>1.603800975273426</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.306810905690202</v>
@@ -14362,7 +14164,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.607183845519929</v>
+        <v>1.5997992360827</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.259467433201754</v>
@@ -14451,7 +14253,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.609303634368016</v>
+        <v>1.604728096494175</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.319297098540017</v>
@@ -14540,7 +14342,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.610722685892673</v>
+        <v>1.609186338524808</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.425590208654755</v>
@@ -14629,7 +14431,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.5827889222052</v>
+        <v>1.586803206736582</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.300451201166996</v>
@@ -14718,7 +14520,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.613381346162203</v>
+        <v>1.619028333510711</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.339894038775301</v>
@@ -14807,7 +14609,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.610364732410223</v>
+        <v>1.619320059949492</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.381270807305178</v>
@@ -14896,7 +14698,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.56849505735891</v>
+        <v>1.584080252229639</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>1.830581446711952</v>
@@ -14985,7 +14787,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.43142103800052</v>
+        <v>1.453631283625317</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>1.761783514117056</v>
@@ -15074,7 +14876,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.429734359953163</v>
+        <v>1.451278236856246</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.747381449346707</v>
@@ -15163,7 +14965,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.447329563238384</v>
+        <v>1.468530410004605</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>1.766182099874701</v>
@@ -15252,7 +15054,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.437958011686654</v>
+        <v>1.462474663011939</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>1.784173500562389</v>
@@ -15341,7 +15143,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.424186700071874</v>
+        <v>1.448112480729039</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>1.788779348437633</v>
@@ -15430,7 +15232,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.426947150342817</v>
+        <v>1.452156465564699</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>1.757971128952047</v>
@@ -15519,7 +15321,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.409656887367112</v>
+        <v>1.432071792402749</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>1.791448524302206</v>
@@ -15608,7 +15410,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.311917134814035</v>
+        <v>1.3272031446726</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>1.643209813850762</v>
@@ -15697,7 +15499,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.263161981682716</v>
+        <v>1.281957668034551</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>1.652949568540372</v>
@@ -15786,7 +15588,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.264282018747374</v>
+        <v>1.281783678055196</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>1.661717533807813</v>
@@ -15875,7 +15677,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.267172603949301</v>
+        <v>1.285068328127431</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>1.665250847352548</v>
@@ -15964,7 +15766,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.270991313846703</v>
+        <v>1.290083825680654</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>1.653675818775373</v>
@@ -16053,7 +15855,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.260009197211306</v>
+        <v>1.277574171698377</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>1.662561505572048</v>
@@ -16142,7 +15944,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.260807559009792</v>
+        <v>1.277195705801669</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>1.645140992088979</v>
@@ -16231,7 +16033,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.292591642294478</v>
+        <v>1.30290483404565</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>1.655426493598822</v>
@@ -16320,7 +16122,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.320220407178148</v>
+        <v>1.335919061467725</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>1.628440822810989</v>
@@ -16409,7 +16211,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.30749090382392</v>
+        <v>1.320788494240413</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>1.618232582616014</v>
@@ -16695,7 +16497,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.400700955517414</v>
+        <v>1.424465825204841</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.653340472089338</v>
@@ -16784,7 +16586,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.406747025023258</v>
+        <v>1.425794533238447</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.661998616993532</v>
@@ -16873,7 +16675,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.408846897574484</v>
+        <v>1.424921359663152</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.65449307286207</v>
@@ -16962,7 +16764,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.423878751363877</v>
+        <v>1.4383885375104</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.645980616449442</v>
@@ -17051,7 +16853,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.43241747644595</v>
+        <v>1.449541860674165</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.634183341171559</v>
@@ -17140,7 +16942,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.445407136397802</v>
+        <v>1.461238100335983</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.661049378134769</v>
@@ -17229,7 +17031,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.525931587306856</v>
+        <v>1.508764573920087</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.934518896002427</v>
@@ -17318,7 +17120,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.588210651374468</v>
+        <v>1.562807921005185</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.335633563444372</v>
@@ -17407,7 +17209,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.618596032832569</v>
+        <v>1.577449361094091</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.775643324167697</v>
@@ -17496,7 +17298,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.639846742980523</v>
+        <v>1.584970117259096</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.674805018254021</v>
@@ -17585,7 +17387,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.627905904392714</v>
+        <v>1.581007849736239</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.574692350672878</v>
@@ -17674,7 +17476,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.626411261350794</v>
+        <v>1.584843440904855</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.984581337567746</v>
@@ -17763,7 +17565,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.647374236480728</v>
+        <v>1.600521679565168</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.985378180773945</v>
@@ -17852,7 +17654,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.636999941948352</v>
+        <v>1.585204753537918</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.193759302423112</v>
@@ -17941,7 +17743,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.621626866863272</v>
+        <v>1.569182058610441</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.149795108728468</v>
@@ -18030,7 +17832,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.629218820517354</v>
+        <v>1.573507308010967</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.257929618784267</v>
@@ -18119,7 +17921,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.626354149223928</v>
+        <v>1.573235725891376</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.166088985291288</v>
@@ -18208,7 +18010,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.618530174715653</v>
+        <v>1.571415135191693</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.139787723241307</v>
@@ -18297,7 +18099,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.603908558604096</v>
+        <v>1.563362616073668</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.788064590192793</v>
@@ -18386,7 +18188,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.581411436800626</v>
+        <v>1.541491085990152</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.75565794809371</v>
@@ -18475,7 +18277,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.557027224386579</v>
+        <v>1.522294956727786</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.407839548683997</v>
@@ -18564,7 +18366,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.550831258301242</v>
+        <v>1.520451682958197</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.388257734274183</v>
@@ -18653,7 +18455,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.552485947785542</v>
+        <v>1.522454191365873</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.472369755856801</v>
@@ -18742,7 +18544,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.538775188155642</v>
+        <v>1.517317842073929</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.473704247281932</v>
@@ -18831,7 +18633,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.534342901694674</v>
+        <v>1.511872197827725</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.336710581252858</v>
@@ -18920,7 +18722,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.50302609703422</v>
+        <v>1.48858574752796</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.395429708950894</v>
@@ -19009,7 +18811,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.49753911482254</v>
+        <v>1.484319642202689</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.459930244776136</v>
@@ -19098,7 +18900,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.486474061662395</v>
+        <v>1.47416792919169</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.471351376605802</v>
@@ -19187,7 +18989,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.470870806134519</v>
+        <v>1.464801863571556</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.429111369150243</v>
@@ -19276,7 +19078,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.462622522820071</v>
+        <v>1.453933735656881</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.482133303413454</v>
@@ -19365,7 +19167,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.459056139861466</v>
+        <v>1.451041976185387</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.380012921164828</v>
@@ -19454,7 +19256,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.456550037921849</v>
+        <v>1.45110465607017</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.566940772811539</v>
@@ -19543,7 +19345,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.454901816116595</v>
+        <v>1.448031782652809</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.344331193408381</v>
@@ -19632,7 +19434,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.455669137007873</v>
+        <v>1.44773568804542</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.37270156613156</v>
@@ -19721,7 +19523,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.453173246350693</v>
+        <v>1.446351120933439</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.584293708379875</v>
@@ -19810,7 +19612,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.469433657580466</v>
+        <v>1.464896358248136</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.451224140485786</v>
@@ -19899,7 +19701,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.458858818460634</v>
+        <v>1.453775605789588</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.445045436706205</v>
@@ -19988,7 +19790,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.470576689448364</v>
+        <v>1.463357634357716</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.650308648896727</v>
@@ -20077,7 +19879,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.462813958526546</v>
+        <v>1.456917605618794</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.838524513027447</v>
@@ -20166,7 +19968,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.478531697750854</v>
+        <v>1.469557787998583</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.486101954660974</v>
@@ -20255,7 +20057,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.49504339776465</v>
+        <v>1.484497986361752</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.788215923707869</v>
@@ -20344,7 +20146,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.499288846514421</v>
+        <v>1.487677085425767</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.743001623586132</v>
@@ -20433,7 +20235,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.514219463744806</v>
+        <v>1.501284881015829</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.622024334902153</v>
@@ -20522,7 +20324,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.498591476305953</v>
+        <v>1.490844931754435</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.771018808473157</v>
@@ -20611,7 +20413,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.498577047876261</v>
+        <v>1.49410285009026</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.603994878867573</v>
@@ -20700,7 +20502,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.477325188153169</v>
+        <v>1.472577247780372</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.466239200989126</v>
@@ -20789,7 +20591,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.462382268837554</v>
+        <v>1.458943501000375</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.745653232390051</v>
@@ -20878,7 +20680,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.460932085430684</v>
+        <v>1.458339154308343</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.680024279391515</v>
@@ -20967,7 +20769,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.465585481951158</v>
+        <v>1.459927784216997</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.512899478448423</v>
@@ -21056,7 +20858,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.461126117322135</v>
+        <v>1.452500235958325</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.642982123050487</v>
@@ -21145,7 +20947,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.46571367342424</v>
+        <v>1.458509967645371</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.730385402987905</v>
@@ -21234,7 +21036,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.457595717326018</v>
+        <v>1.448371700914142</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.658945609551091</v>
@@ -21323,7 +21125,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.448168824551483</v>
+        <v>1.438045522242266</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.678013679914149</v>
@@ -21412,7 +21214,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.450696317049992</v>
+        <v>1.440180756666692</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.529815335659696</v>
@@ -21501,7 +21303,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.456825734121133</v>
+        <v>1.447992205901869</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.536673589162776</v>
@@ -21590,7 +21392,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.438647231509907</v>
+        <v>1.431022007779886</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.691944285135562</v>
@@ -21679,7 +21481,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.451045362390543</v>
+        <v>1.442066953904781</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.617555670832649</v>
@@ -21768,7 +21570,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.446227999691756</v>
+        <v>1.438420320478263</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.511614821657368</v>
@@ -21857,7 +21659,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.459475420440696</v>
+        <v>1.443830456925095</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.437745635390961</v>
@@ -21946,7 +21748,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.437621233820079</v>
+        <v>1.42566522315772</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.202023547840469</v>
@@ -22035,7 +21837,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.453300538365915</v>
+        <v>1.440591218743971</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.352787642552192</v>
@@ -22124,7 +21926,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.454511948107824</v>
+        <v>1.440618652858284</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.387982854769412</v>
@@ -22213,7 +22015,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.456832454827974</v>
+        <v>1.443248965455128</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.356674004300479</v>
@@ -22302,7 +22104,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.454091629907756</v>
+        <v>1.443018571095006</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.35318604186767</v>
@@ -22391,7 +22193,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.476528890322287</v>
+        <v>1.462525929183496</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.241425969768378</v>
@@ -22480,7 +22282,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.477458417109802</v>
+        <v>1.464670307083046</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.413150883125295</v>
@@ -22569,7 +22371,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.46857107365709</v>
+        <v>1.462348702927169</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.385712979645901</v>
@@ -22658,7 +22460,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.448034784119135</v>
+        <v>1.446627514937563</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.336246811830295</v>
@@ -22747,7 +22549,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.445934243205463</v>
+        <v>1.443417816251391</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.367195025620318</v>
@@ -22836,7 +22638,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.44711178134946</v>
+        <v>1.44597791894181</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.323564415748465</v>
@@ -22925,7 +22727,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.472529112753213</v>
+        <v>1.470847636244714</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.353385430990098</v>
@@ -23014,7 +22816,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.453693412396592</v>
+        <v>1.454237750704156</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.338670402341899</v>
@@ -23103,7 +22905,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.458870919364102</v>
+        <v>1.457194136315034</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.277342606699633</v>
@@ -23192,7 +22994,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.470559002458848</v>
+        <v>1.469725446575845</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.304482870601509</v>
@@ -23281,7 +23083,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.473025571471555</v>
+        <v>1.474887697643643</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.323931726893533</v>
@@ -23370,7 +23172,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.462869415563445</v>
+        <v>1.46797765754008</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.446971059946446</v>
@@ -23656,7 +23458,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.761990211082643</v>
+        <v>1.734544164507364</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.24729548115313</v>
@@ -23745,7 +23547,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.759111768007712</v>
+        <v>1.729448542744715</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.247569210978493</v>
@@ -23834,7 +23636,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.765162134553715</v>
+        <v>1.733453481600022</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.220109309718225</v>
@@ -23923,7 +23725,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.777759124724829</v>
+        <v>1.743776128459649</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.256135159318713</v>
@@ -24012,7 +23814,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.779261872482774</v>
+        <v>1.751710004039679</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.227898646993201</v>
@@ -24101,7 +23903,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.790336917200513</v>
+        <v>1.761638906190456</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.238145587677253</v>
@@ -24190,7 +23992,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.76870362215303</v>
+        <v>1.729304546106051</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.707948462999791</v>
@@ -24279,7 +24081,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.784481695874259</v>
+        <v>1.748046980494216</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.429188805678086</v>
@@ -24368,7 +24170,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.802328351684969</v>
+        <v>1.759081849444726</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>4.030018705515818</v>
@@ -24457,7 +24259,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.806786640184966</v>
+        <v>1.761531189048431</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>4.376572975738953</v>
@@ -24546,7 +24348,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.802330364629401</v>
+        <v>1.755880478354256</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>4.357865614141034</v>
@@ -24635,7 +24437,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.796821781007</v>
+        <v>1.756726782189622</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>4.030799245898657</v>
@@ -24724,7 +24526,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.809240484308925</v>
+        <v>1.772346957798596</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>4.035457272846284</v>
@@ -24813,7 +24615,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.804783151298202</v>
+        <v>1.765374064945407</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>4.087804570915915</v>
@@ -24902,7 +24704,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.805882172510263</v>
+        <v>1.766479667356105</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.497716783991308</v>
@@ -24991,7 +24793,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.806088786494425</v>
+        <v>1.767512903032143</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>4.079846789025277</v>
@@ -25080,7 +24882,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.811746624755201</v>
+        <v>1.77306308711106</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>4.327901587101964</v>
@@ -25169,7 +24971,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.800099127401619</v>
+        <v>1.757309320223941</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>4.37740514811961</v>
@@ -25258,7 +25060,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.797760397163369</v>
+        <v>1.755873070905534</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>4.05008895458811</v>
@@ -25347,7 +25149,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.77785285336248</v>
+        <v>1.735929978711931</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.964341923754183</v>
@@ -25436,7 +25238,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.755451376238451</v>
+        <v>1.721694436198078</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.480729715799385</v>
@@ -25525,7 +25327,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.742659382946463</v>
+        <v>1.705835127361533</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.024143732523202</v>
@@ -25614,7 +25416,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.741012867808682</v>
+        <v>1.703868310256733</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.160324904629415</v>
@@ -25703,7 +25505,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.740569083623054</v>
+        <v>1.705376832710861</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.122668477274638</v>
@@ -25792,7 +25594,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.733565049066359</v>
+        <v>1.700101627206301</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.029013877552496</v>
@@ -25881,7 +25683,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.721871925291587</v>
+        <v>1.693991210282854</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.937410063075431</v>
@@ -25970,7 +25772,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.708417490827713</v>
+        <v>1.6812619470516</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.123438226299371</v>
@@ -26059,7 +25861,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.699044475642199</v>
+        <v>1.674903836263561</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.158417451936127</v>
@@ -26148,7 +25950,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.698044576711013</v>
+        <v>1.676787642161299</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.204869518727612</v>
@@ -26237,7 +26039,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.700165694194115</v>
+        <v>1.673982354983438</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.277650634341787</v>
@@ -26326,7 +26128,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.696485124846109</v>
+        <v>1.670164539152995</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.108299715715492</v>
@@ -26415,7 +26217,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.691547325223615</v>
+        <v>1.669464790482327</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.390040445955981</v>
@@ -26504,7 +26306,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.693167690763787</v>
+        <v>1.66976971553831</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.052093382465199</v>
@@ -26593,7 +26395,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.703273968276267</v>
+        <v>1.675830688247628</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.90581021648037</v>
@@ -26682,7 +26484,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.710430062669602</v>
+        <v>1.680733075812016</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.251906732572693</v>
@@ -26771,7 +26573,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.729638041350698</v>
+        <v>1.692501502639742</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.460772381318836</v>
@@ -26860,7 +26662,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.723997467027615</v>
+        <v>1.68772401774547</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.988667802486137</v>
@@ -26949,7 +26751,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.724638349892677</v>
+        <v>1.688638287886518</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.540008676580864</v>
@@ -27038,7 +26840,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.716477826447929</v>
+        <v>1.679086215921668</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.797766942118292</v>
@@ -27127,7 +26929,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.732719996900111</v>
+        <v>1.691480805513936</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.292428297796778</v>
@@ -27216,7 +27018,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.744026619247522</v>
+        <v>1.701729198892129</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.78063784703876</v>
@@ -27305,7 +27107,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.755917838483604</v>
+        <v>1.7116008724537</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.251881835651057</v>
@@ -27394,7 +27196,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.774332155157067</v>
+        <v>1.725826456672039</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>4.019858123052376</v>
@@ -27483,7 +27285,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.760370889735356</v>
+        <v>1.716732847310873</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>4.000981714088807</v>
@@ -27572,7 +27374,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.75613958619954</v>
+        <v>1.719874408856086</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.490768902805659</v>
@@ -27661,7 +27463,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.74028183844007</v>
+        <v>1.706664630489041</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.730553391268348</v>
@@ -27750,7 +27552,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.733408766059401</v>
+        <v>1.700429890931235</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.578137664845348</v>
@@ -27839,7 +27641,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.733421796916385</v>
+        <v>1.701814419549251</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.64187177256153</v>
@@ -27928,7 +27730,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.729968563035829</v>
+        <v>1.696508193628235</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.232830670963279</v>
@@ -28017,7 +27819,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.723214669834488</v>
+        <v>1.693671417474267</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.437723057801656</v>
@@ -28106,7 +27908,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.723293561485318</v>
+        <v>1.700536048232119</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.381081809223244</v>
@@ -28195,7 +27997,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.711885722436992</v>
+        <v>1.695350576786264</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.209681276178212</v>
@@ -28284,7 +28086,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.614212480348705</v>
+        <v>1.609080414529062</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.029659932413269</v>
@@ -28373,7 +28175,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.611479051101294</v>
+        <v>1.604825230797554</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.049135779307311</v>
@@ -28462,7 +28264,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.612992728586714</v>
+        <v>1.605992608800043</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.066972114857873</v>
@@ -28551,7 +28353,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.604836963866111</v>
+        <v>1.598384133956747</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.032971440498935</v>
@@ -28640,7 +28442,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.609457699577296</v>
+        <v>1.600964284677308</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.054818571566337</v>
@@ -28729,7 +28531,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.601185715837327</v>
+        <v>1.594586264871857</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.044573653818769</v>
@@ -28818,7 +28620,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.611500728285628</v>
+        <v>1.601796553231602</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.065377397005373</v>
@@ -28907,7 +28709,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.580894487386041</v>
+        <v>1.579716078741794</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.019740482496863</v>
@@ -28996,7 +28798,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.58691520237776</v>
+        <v>1.587312486224421</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.052078370189121</v>
@@ -29085,7 +28887,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.590379024173616</v>
+        <v>1.59584653232511</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.067078446060569</v>
@@ -29174,7 +28976,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.59598468145819</v>
+        <v>1.602766009401776</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.086514208474205</v>
@@ -29263,7 +29065,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.586609030248006</v>
+        <v>1.599793590287669</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.049985796898121</v>
@@ -29352,7 +29154,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.586650838820802</v>
+        <v>1.5990384550296</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.063867494969138</v>
@@ -29441,7 +29243,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.58728513262485</v>
+        <v>1.597385234580406</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.047380086644136</v>
@@ -29530,7 +29332,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.543592184494061</v>
+        <v>1.557048096478824</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.057724029160926</v>
@@ -29619,7 +29421,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.579890319587255</v>
+        <v>1.598007162680539</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.242613346219539</v>
@@ -29708,7 +29510,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.584299040449005</v>
+        <v>1.603322743395026</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.273767621990172</v>
@@ -29797,7 +29599,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.584001191490035</v>
+        <v>1.606027006651065</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.259322739113228</v>
@@ -29886,7 +29688,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.584613716278887</v>
+        <v>1.607233289121533</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.249181913685705</v>
@@ -29975,7 +29777,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.573328094646096</v>
+        <v>1.596879402704671</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.264444628652706</v>
@@ -30064,7 +29866,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.57424579725099</v>
+        <v>1.592801085241683</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.261316212784418</v>
@@ -30153,7 +29955,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.585990490910088</v>
+        <v>1.594531670045747</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.143254942380572</v>
@@ -30242,7 +30044,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.597064305652433</v>
+        <v>1.606533206113257</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.238569968194981</v>
@@ -30331,7 +30133,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.595182009127785</v>
+        <v>1.602454977910523</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.215379497722172</v>
@@ -30617,7 +30419,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.741907455751571</v>
+        <v>1.73715945255609</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.960044182965097</v>
@@ -30706,7 +30508,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.751609267221839</v>
+        <v>1.744343458646707</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.963556196390195</v>
@@ -30795,7 +30597,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.754216507848377</v>
+        <v>1.745619171363298</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.975148087986367</v>
@@ -30884,7 +30686,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.76736980263983</v>
+        <v>1.750633122439142</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.967490438297941</v>
@@ -30973,7 +30775,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.769894766340122</v>
+        <v>1.750426199118921</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.969100762272928</v>
@@ -31062,7 +30864,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.777856660351267</v>
+        <v>1.750797525918216</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.011498166415032</v>
@@ -31151,7 +30953,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.78443741127476</v>
+        <v>1.734270215060434</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.578363746686141</v>
@@ -31240,7 +31042,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.801558515329326</v>
+        <v>1.743866922565919</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.823421180319233</v>
@@ -31329,7 +31131,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.794325412647082</v>
+        <v>1.736245783460732</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.854152269207036</v>
@@ -31418,7 +31220,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.790012223850926</v>
+        <v>1.728646724281085</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.983753214614649</v>
@@ -31507,7 +31309,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.769599009077784</v>
+        <v>1.711875492822662</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.78334671507507</v>
@@ -31596,7 +31398,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.770933368585877</v>
+        <v>1.717828016156836</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.759126266215859</v>
@@ -31685,7 +31487,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.772150546309609</v>
+        <v>1.721710014735123</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.484748465106172</v>
@@ -31774,7 +31576,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.754856849736788</v>
+        <v>1.706167227829135</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.724639664829704</v>
@@ -31863,7 +31665,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.730377098372734</v>
+        <v>1.683173765181859</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.673438996751134</v>
@@ -31952,7 +31754,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.727370231597225</v>
+        <v>1.679736240875117</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.555337412973055</v>
@@ -32041,7 +31843,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.720565471420777</v>
+        <v>1.674638181922809</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.622662265201857</v>
@@ -32130,7 +31932,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.721457517368056</v>
+        <v>1.673182793829928</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.270905908208553</v>
@@ -32219,7 +32021,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.711738965208721</v>
+        <v>1.666951664884103</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.57465418023185</v>
@@ -32308,7 +32110,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.713251892400851</v>
+        <v>1.67384133065779</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.626584573507162</v>
@@ -32397,7 +32199,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.70535015570857</v>
+        <v>1.672831290066009</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.418832653197525</v>
@@ -32486,7 +32288,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.712177245015956</v>
+        <v>1.674555178642881</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.542010686844788</v>
@@ -32575,7 +32377,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.709625508008811</v>
+        <v>1.676020125027705</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.442024853703112</v>
@@ -32664,7 +32466,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.709207952569024</v>
+        <v>1.676699174281034</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.666856045052127</v>
@@ -32753,7 +32555,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.709865876997113</v>
+        <v>1.668744792131441</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.000565952648407</v>
@@ -32842,7 +32644,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.712355003956952</v>
+        <v>1.672664131812723</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.783565863035481</v>
@@ -32931,7 +32733,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.711174814262136</v>
+        <v>1.671549654801868</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.620559199337188</v>
@@ -33020,7 +32822,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.71739376433172</v>
+        <v>1.679996307737667</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.774099241471888</v>
@@ -33109,7 +32911,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.721071501565803</v>
+        <v>1.675469918448575</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.757467373860318</v>
@@ -33198,7 +33000,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.738271585497008</v>
+        <v>1.688963342331419</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.705381963038279</v>
@@ -33287,7 +33089,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.731260985063202</v>
+        <v>1.686821644055225</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>4.098983498460885</v>
@@ -33376,7 +33178,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.742921999453657</v>
+        <v>1.698925360130901</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.951687511042531</v>
@@ -33465,7 +33267,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.742386513655307</v>
+        <v>1.703914920661356</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.889896703752472</v>
@@ -33554,7 +33356,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.74919086917915</v>
+        <v>1.711206970474195</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.955985064588523</v>
@@ -33643,7 +33445,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.744475940056648</v>
+        <v>1.706948060499392</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.737632894225505</v>
@@ -33732,7 +33534,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.740782058592662</v>
+        <v>1.706466416009592</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.839862050283706</v>
@@ -33821,7 +33623,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.745126347618308</v>
+        <v>1.708927355207061</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.646372240209883</v>
@@ -33910,7 +33712,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.747378426052966</v>
+        <v>1.709632779667472</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.861052196720553</v>
@@ -33999,7 +33801,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.745704397114359</v>
+        <v>1.708054753491608</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>4.279500461743352</v>
@@ -34088,7 +33890,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.748735115288609</v>
+        <v>1.718450551392247</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.951490040051415</v>
@@ -34177,7 +33979,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.751411577265098</v>
+        <v>1.717878288114052</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.370264821839471</v>
@@ -34266,7 +34068,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.750015935516349</v>
+        <v>1.709080224034279</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>4.254910659965494</v>
@@ -34355,7 +34157,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.744436109430939</v>
+        <v>1.706411195908377</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.885393991869927</v>
@@ -34444,7 +34246,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.740172482661924</v>
+        <v>1.707477818041178</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.653757766169866</v>
@@ -34533,7 +34335,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.752279410985061</v>
+        <v>1.718941220403137</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.546522310335141</v>
@@ -34622,7 +34424,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.738166817007556</v>
+        <v>1.708225452075823</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.631802575828574</v>
@@ -34711,7 +34513,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.736484327701347</v>
+        <v>1.704840564456209</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.579036918391725</v>
@@ -34800,7 +34602,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.728756887362972</v>
+        <v>1.697195010443645</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.87524077964934</v>
@@ -34889,7 +34691,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.734848699156208</v>
+        <v>1.696596776862322</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.523465182973793</v>
@@ -34978,7 +34780,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.718918827346303</v>
+        <v>1.682960227240127</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.936658951135838</v>
@@ -35067,7 +34869,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.715574111114418</v>
+        <v>1.682964292842379</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.65419682539969</v>
@@ -35156,7 +34958,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.695779093299537</v>
+        <v>1.669961750172803</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.987555781795675</v>
@@ -35245,7 +35047,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.685725941461456</v>
+        <v>1.659983997571503</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.664075244629031</v>
@@ -35334,7 +35136,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.678542766272982</v>
+        <v>1.655763883182462</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.466364812945595</v>
@@ -35423,7 +35225,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.675914350348962</v>
+        <v>1.656453113284524</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.755353031265386</v>
@@ -35512,7 +35314,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.669935098162461</v>
+        <v>1.648048456530858</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.367793389524902</v>
@@ -35601,7 +35403,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.66864800459995</v>
+        <v>1.647961424210123</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.397142601370866</v>
@@ -35690,7 +35492,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.66861221219506</v>
+        <v>1.648204549774384</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.495251118623982</v>
@@ -35779,7 +35581,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.674537917762946</v>
+        <v>1.653915111999549</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.786159648958388</v>
@@ -35868,7 +35670,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.63440569450728</v>
+        <v>1.620659371734218</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.844088717033975</v>
@@ -35957,7 +35759,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.647073708674157</v>
+        <v>1.631097005804398</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.903625703716401</v>
@@ -36046,7 +35848,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.649104435342087</v>
+        <v>1.633983271413777</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.73673247969574</v>
@@ -36135,7 +35937,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.64821407108178</v>
+        <v>1.63365020381932</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.8605229089686</v>
@@ -36224,7 +36026,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.644460729690553</v>
+        <v>1.63303727542283</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.830980285916448</v>
@@ -36313,7 +36115,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.654900900886805</v>
+        <v>1.644612343180424</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.717424937982772</v>
@@ -36402,7 +36204,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.659679736442254</v>
+        <v>1.648722286167438</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.873479225199872</v>
@@ -36491,7 +36293,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.584446054421743</v>
+        <v>1.588953315412955</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.173804952979073</v>
@@ -36580,7 +36382,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.564747410297388</v>
+        <v>1.575299403464594</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.145523739668503</v>
@@ -36669,7 +36471,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.558716316903158</v>
+        <v>1.570256936893177</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.181597628542782</v>
@@ -36758,7 +36560,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.558510429613082</v>
+        <v>1.567587128655903</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.161345730920999</v>
@@ -36847,7 +36649,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.567085509273006</v>
+        <v>1.580162555822438</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.172296630029287</v>
@@ -36936,7 +36738,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.559448707275902</v>
+        <v>1.577846750208062</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.187362736890826</v>
@@ -37025,7 +36827,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.559976923588866</v>
+        <v>1.577236852029949</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.151867741373144</v>
@@ -37114,7 +36916,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.564614266191636</v>
+        <v>1.579307145583797</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.126830683856222</v>
@@ -37203,7 +37005,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.580816005899468</v>
+        <v>1.594164785385799</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.135506662169726</v>
@@ -37292,7 +37094,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.573502533429573</v>
+        <v>1.588223525208363</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.115613292639827</v>
@@ -37578,7 +37380,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.444543788979222</v>
+        <v>1.455616131807744</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.770708639463471</v>
@@ -37667,7 +37469,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.456848848750506</v>
+        <v>1.460415572197305</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.754561601972659</v>
@@ -37756,7 +37558,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.457990000181321</v>
+        <v>1.463322450970777</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.751210124403147</v>
@@ -37845,7 +37647,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.468953248172703</v>
+        <v>1.474059851983448</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.751511105162678</v>
@@ -37934,7 +37736,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.483443304097944</v>
+        <v>1.487914360623794</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.719284685863085</v>
@@ -38023,7 +37825,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.49689154401118</v>
+        <v>1.498796948324651</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.783292326662245</v>
@@ -38112,7 +37914,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.55327632564391</v>
+        <v>1.524007597417284</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.460076302494422</v>
@@ -38201,7 +38003,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.565825280165578</v>
+        <v>1.538856174351516</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.342362263063354</v>
@@ -38290,7 +38092,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.585815952216612</v>
+        <v>1.550854080078079</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.375800778340528</v>
@@ -38379,7 +38181,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.603572623526165</v>
+        <v>1.563857937122574</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.463984094584454</v>
@@ -38468,7 +38270,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.588813718412525</v>
+        <v>1.554876476745821</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.369151588643528</v>
@@ -38557,7 +38359,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.569594063031929</v>
+        <v>1.543165886336875</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.533419613988895</v>
@@ -38646,7 +38448,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.588433851906228</v>
+        <v>1.563211279415863</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.320217621373162</v>
@@ -38735,7 +38537,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.580577217387933</v>
+        <v>1.553310831965416</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.41966908215798</v>
@@ -38824,7 +38626,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.568631173696605</v>
+        <v>1.545492188621733</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.595516441449489</v>
@@ -38913,7 +38715,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.569642867459967</v>
+        <v>1.548627543606294</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.448302270210296</v>
@@ -39002,7 +38804,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.57422360102788</v>
+        <v>1.552055149184124</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.734257450770903</v>
@@ -39091,7 +38893,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.565495031600097</v>
+        <v>1.547704623761448</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.533962465742145</v>
@@ -39180,7 +38982,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.553396074206894</v>
+        <v>1.538215674946221</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.577560789872535</v>
@@ -39269,7 +39071,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.537728642472575</v>
+        <v>1.524621826191609</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.571322472920218</v>
@@ -39358,7 +39160,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.538686122527773</v>
+        <v>1.528771154630076</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.615078514281433</v>
@@ -39447,7 +39249,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.526090598832406</v>
+        <v>1.515324618275149</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.512574341847674</v>
@@ -39536,7 +39338,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.524970691559398</v>
+        <v>1.513200476592465</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.520341360780249</v>
@@ -39625,7 +39427,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.526029185105524</v>
+        <v>1.517252887786545</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.593242314679543</v>
@@ -39714,7 +39516,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.530959299878992</v>
+        <v>1.518695361188702</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.465488691223538</v>
@@ -39803,7 +39605,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.493253285406626</v>
+        <v>1.487130676206209</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.457825814319717</v>
@@ -39892,7 +39694,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.492326226298782</v>
+        <v>1.484628788651702</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.503602758316837</v>
@@ -39981,7 +39783,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.482750438145658</v>
+        <v>1.473099011403704</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.550166967599974</v>
@@ -40070,7 +39872,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.464393089977676</v>
+        <v>1.458444824064703</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.429119594575154</v>
@@ -40159,7 +39961,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.438966840462486</v>
+        <v>1.431281465868551</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.524367134580802</v>
@@ -40248,7 +40050,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.436126576127364</v>
+        <v>1.426762974838614</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.348502567832299</v>
@@ -40337,7 +40139,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.437091110728251</v>
+        <v>1.427748101959641</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.35822703073207</v>
@@ -40426,7 +40228,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.435697276801803</v>
+        <v>1.427451398007239</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.36980182439629</v>
@@ -40515,7 +40317,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.436958517039673</v>
+        <v>1.430545725742012</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.507608932157467</v>
@@ -40604,7 +40406,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.414129330202702</v>
+        <v>1.40770229498317</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.174860972713764</v>
@@ -40693,7 +40495,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.417040540946658</v>
+        <v>1.410249618927595</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.345113244606268</v>
@@ -40782,7 +40584,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.407288084589566</v>
+        <v>1.401009396815539</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.564237835640908</v>
@@ -40871,7 +40673,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.418157563889867</v>
+        <v>1.408371224010425</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.375001961272819</v>
@@ -40960,7 +40762,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.402374049837575</v>
+        <v>1.392820986488445</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.405164997573444</v>
@@ -41049,7 +40851,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.415231062655705</v>
+        <v>1.40491773985708</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.402448220811526</v>
@@ -41138,7 +40940,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.434780721556583</v>
+        <v>1.423008146543865</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.369732563483481</v>
@@ -41227,7 +41029,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.433488610369998</v>
+        <v>1.421777334673539</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.356536348053169</v>
@@ -41316,7 +41118,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.443355043648404</v>
+        <v>1.431464200998704</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.249191222792374</v>
@@ -41405,7 +41207,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.442584009899708</v>
+        <v>1.432164762212433</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.246288909837537</v>
@@ -41494,7 +41296,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.458542786159157</v>
+        <v>1.448567094210534</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.217747925747018</v>
@@ -41583,7 +41385,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.444809724767265</v>
+        <v>1.433579540798268</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.270866688527049</v>
@@ -41672,7 +41474,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.429670648187971</v>
+        <v>1.417828258786523</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.403582417701</v>
@@ -41761,7 +41563,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.430533738762381</v>
+        <v>1.416481189859331</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.411760865389394</v>
@@ -41850,7 +41652,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.444564113396916</v>
+        <v>1.425181442989863</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.176015046357623</v>
@@ -41939,7 +41741,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.454805559384967</v>
+        <v>1.433208007314318</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.482888937175809</v>
@@ -42028,7 +41830,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.458317979188247</v>
+        <v>1.446333846320154</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.400346553819556</v>
@@ -42117,7 +41919,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.45659866250123</v>
+        <v>1.445382458156755</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.464661497736552</v>
@@ -42206,7 +42008,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.453532294648475</v>
+        <v>1.444431693211506</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.376925075585025</v>
@@ -42295,7 +42097,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.447354942107719</v>
+        <v>1.438648621956523</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.469356582888845</v>
@@ -42384,7 +42186,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.443800327171346</v>
+        <v>1.43301613533018</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.408440708140194</v>
@@ -42473,7 +42275,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.430394006646929</v>
+        <v>1.421761322656509</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.427640690842</v>
@@ -42562,7 +42364,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.441780974435068</v>
+        <v>1.436546203482992</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.550694970655638</v>
@@ -42651,7 +42453,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.438391379666051</v>
+        <v>1.433003923841456</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.414842253792735</v>
@@ -42740,7 +42542,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.453497999225267</v>
+        <v>1.444457724290749</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.261120319331699</v>
@@ -42829,7 +42631,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.432022436285455</v>
+        <v>1.427138221490222</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.531832458599375</v>
@@ -42918,7 +42720,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.45416505170806</v>
+        <v>1.448458265415882</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.302587781816575</v>
@@ -43007,7 +42809,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.457129152463032</v>
+        <v>1.454756381695563</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.428352708805724</v>
@@ -43096,7 +42898,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.453902429373059</v>
+        <v>1.451034033611511</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.203050825857046</v>
@@ -43185,7 +42987,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.429244915859615</v>
+        <v>1.434927852690085</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.448748562932212</v>
@@ -43274,7 +43076,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.446044908818163</v>
+        <v>1.450324533618056</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.342924529951999</v>
@@ -43363,7 +43165,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.42812065853495</v>
+        <v>1.434208921106237</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.487176468037996</v>
@@ -43452,7 +43254,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.443348126459964</v>
+        <v>1.44125221059196</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.215762916312604</v>
@@ -43541,7 +43343,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.427524771064415</v>
+        <v>1.426328688203166</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.255364112742779</v>
@@ -43630,7 +43432,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.410616644702678</v>
+        <v>1.406754408856269</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.288561617021509</v>
@@ -43719,7 +43521,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.418684379022033</v>
+        <v>1.41468680110471</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.386482787842291</v>
@@ -43808,7 +43610,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.422068479778131</v>
+        <v>1.418676896067775</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.340419117926984</v>
@@ -43897,7 +43699,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.41339459118422</v>
+        <v>1.407176481059688</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.352444305061871</v>
@@ -43986,7 +43788,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.407913599127747</v>
+        <v>1.403690900534114</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.250221882335055</v>
@@ -44075,7 +43877,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.418747978203529</v>
+        <v>1.411263001558598</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.346196910428007</v>
@@ -44164,7 +43966,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.418932189231143</v>
+        <v>1.416767123123881</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.355829647360449</v>
@@ -44253,7 +44055,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.414604746228406</v>
+        <v>1.4129986464418</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.394489814634392</v>
@@ -44539,7 +44341,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.489124307859898</v>
+        <v>1.503201710735934</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.960372013548561</v>
@@ -44628,7 +44430,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.505543182074969</v>
+        <v>1.508681316062715</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.922477947561509</v>
@@ -44717,7 +44519,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.51154140599047</v>
+        <v>1.515240525832029</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.913269720102689</v>
@@ -44806,7 +44608,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.54361616946272</v>
+        <v>1.548341655273485</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.955621249027379</v>
@@ -44895,7 +44697,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.570316625936879</v>
+        <v>1.572713604632204</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.913261033204826</v>
@@ -44984,7 +44786,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.567858032607796</v>
+        <v>1.566867220170382</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.978419555501677</v>
@@ -45073,7 +44875,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.645906399739007</v>
+        <v>1.621206432843764</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.361609098284459</v>
@@ -45162,7 +44964,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.660237836597084</v>
+        <v>1.63485252969993</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.634602307737846</v>
@@ -45251,7 +45053,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.66689000193416</v>
+        <v>1.640625820954789</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.506971714629906</v>
@@ -45340,7 +45142,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.680715054598389</v>
+        <v>1.647326210938266</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.592306786774239</v>
@@ -45429,7 +45231,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.665369192433896</v>
+        <v>1.641492867000191</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.491657316779599</v>
@@ -45518,7 +45320,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.64051569599278</v>
+        <v>1.622458479120352</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.613108135368807</v>
@@ -45607,7 +45409,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.664341840169489</v>
+        <v>1.643333257145323</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.435322178696965</v>
@@ -45696,7 +45498,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.652258045824837</v>
+        <v>1.626596634983661</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.568730549285476</v>
@@ -45785,7 +45587,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.640375673176292</v>
+        <v>1.615023038685814</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.588743095919734</v>
@@ -45874,7 +45676,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.633298017543514</v>
+        <v>1.606351273707304</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.482199702202463</v>
@@ -45963,7 +45765,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.640044239818089</v>
+        <v>1.617903015680766</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.77135544938812</v>
@@ -46052,7 +45854,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.650280907103968</v>
+        <v>1.62160036074361</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.556740305081791</v>
@@ -46141,7 +45943,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.637890952108094</v>
+        <v>1.610413996642502</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.517761715916703</v>
@@ -46230,7 +46032,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.623171425489058</v>
+        <v>1.595371791540776</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.454241924032194</v>
@@ -46319,7 +46121,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.620463611314304</v>
+        <v>1.590100327539343</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.560838225011837</v>
@@ -46408,7 +46210,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.613972809183096</v>
+        <v>1.584022644774122</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.407640791318316</v>
@@ -46497,7 +46299,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.615111031950857</v>
+        <v>1.586526236279267</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.483416526978634</v>
@@ -46586,7 +46388,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.614785335274225</v>
+        <v>1.586688882416717</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.479618476550201</v>
@@ -46675,7 +46477,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.627202189441127</v>
+        <v>1.597463232355821</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.386963777417451</v>
@@ -46764,7 +46566,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.601222144712964</v>
+        <v>1.574789275394707</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.343517995275428</v>
@@ -46853,7 +46655,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.627801923085894</v>
+        <v>1.598761105880041</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.388669154160984</v>
@@ -46942,7 +46744,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.630201838145512</v>
+        <v>1.605601285081758</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.442972365601234</v>
@@ -47031,7 +46833,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.634707812873024</v>
+        <v>1.608157000036327</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.457531071234121</v>
@@ -47120,7 +46922,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.606607727839443</v>
+        <v>1.581462460546553</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.529194529119991</v>
@@ -47209,7 +47011,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.613985604792969</v>
+        <v>1.591542610510081</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.32614660882055</v>
@@ -47298,7 +47100,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.62011760930564</v>
+        <v>1.595669946928496</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.443915837865279</v>
@@ -47387,7 +47189,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.621159242061895</v>
+        <v>1.600242950122437</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.410867899259722</v>
@@ -47476,7 +47278,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.624211535425968</v>
+        <v>1.604884283833744</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.595351500582736</v>
@@ -47565,7 +47367,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.590572620071193</v>
+        <v>1.57600746470857</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.395518692470951</v>
@@ -47654,7 +47456,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.605151567721643</v>
+        <v>1.589270367565791</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.616691864236628</v>
@@ -47743,7 +47545,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.601468199402667</v>
+        <v>1.586781950467474</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.51211779675522</v>
@@ -47832,7 +47634,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.628547610139708</v>
+        <v>1.614053941064198</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.579392196687006</v>
@@ -47921,7 +47723,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.61410943276106</v>
+        <v>1.600002350815773</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.433321765312535</v>
@@ -48010,7 +47812,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.623090135099387</v>
+        <v>1.608779573513065</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.591896546067192</v>
@@ -48099,7 +47901,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.650993087737295</v>
+        <v>1.635259893628739</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.500088052418233</v>
@@ -48188,7 +47990,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.630666210337896</v>
+        <v>1.616789794004519</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.352878128496825</v>
@@ -48277,7 +48079,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.627365823593489</v>
+        <v>1.615714481869018</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.415776027492285</v>
@@ -48366,7 +48168,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.609274937925583</v>
+        <v>1.605734734281495</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.372082849320093</v>
@@ -48455,7 +48257,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.636734148685028</v>
+        <v>1.630786444170759</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.323406157782816</v>
@@ -48544,7 +48346,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.623300364600821</v>
+        <v>1.619851315780627</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.410977520116433</v>
@@ -48633,7 +48435,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.596427521893687</v>
+        <v>1.597537559806153</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.399267292937765</v>
@@ -48722,7 +48524,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.592185727177683</v>
+        <v>1.589493545844797</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.421909483408086</v>
@@ -48811,7 +48613,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.603341255663868</v>
+        <v>1.602371192003201</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.186593652461482</v>
@@ -48900,7 +48702,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.632105309428367</v>
+        <v>1.627026625400379</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.425997404640411</v>
@@ -48989,7 +48791,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.629078569118483</v>
+        <v>1.636669711824827</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.394642952755733</v>
@@ -49078,7 +48880,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.576113955260756</v>
+        <v>1.584042463143464</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.295946888358214</v>
@@ -49167,7 +48969,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.561091923618268</v>
+        <v>1.570575694476629</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.27518926239498</v>
@@ -49256,7 +49058,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.558177008258035</v>
+        <v>1.569481501182861</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.267753632162828</v>
@@ -49345,7 +49147,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.560189951154122</v>
+        <v>1.572144573434448</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.240574358826021</v>
@@ -49434,7 +49236,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.545103347551796</v>
+        <v>1.556051411453602</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.331620892492395</v>
@@ -49523,7 +49325,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.563354296093323</v>
+        <v>1.572484897032272</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.265266420018899</v>
@@ -49612,7 +49414,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.560649592277848</v>
+        <v>1.569820230971577</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.277216901536651</v>
@@ -49701,7 +49503,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.582044497684963</v>
+        <v>1.581753429023733</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.265509834008332</v>
@@ -49790,7 +49592,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.538588488782404</v>
+        <v>1.549099500929875</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.320933236193855</v>
@@ -49879,7 +49681,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.553022315109035</v>
+        <v>1.559520553171041</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.240654789064937</v>
@@ -49968,7 +49770,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.568997343547076</v>
+        <v>1.572843948900921</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.319124104023724</v>
@@ -50057,7 +49859,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.561146538431837</v>
+        <v>1.564189356147535</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.221532462927367</v>
@@ -50146,7 +49948,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.533791171133054</v>
+        <v>1.53246603707782</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.270979123451352</v>
@@ -50235,7 +50037,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.535700770318962</v>
+        <v>1.53358807089639</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.317387166015001</v>
@@ -50324,7 +50126,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.521183103377334</v>
+        <v>1.51809944658969</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.334860046069168</v>
@@ -50413,7 +50215,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.518891355401593</v>
+        <v>1.488492164539533</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>1.698577053063255</v>
@@ -50502,7 +50304,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.513786070818873</v>
+        <v>1.497530762247951</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>1.72980418462993</v>
@@ -50591,7 +50393,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.511495749294039</v>
+        <v>1.494091053544753</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>1.73310541368904</v>
@@ -50680,7 +50482,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.505971451882615</v>
+        <v>1.486786512471358</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>1.740356949610634</v>
@@ -50769,7 +50571,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.514476963050974</v>
+        <v>1.492074464436443</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>1.747622352824298</v>
@@ -50858,7 +50660,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.49751737074403</v>
+        <v>1.477957817877979</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>1.747915672471397</v>
@@ -50947,7 +50749,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.482310481296854</v>
+        <v>1.46319759494544</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>1.743979229555799</v>
@@ -51036,7 +50838,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.479635887372976</v>
+        <v>1.46122066013441</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>1.822329679166723</v>
@@ -51125,7 +50927,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.485458397604349</v>
+        <v>1.46689950476483</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>1.741012917846697</v>
@@ -51214,7 +51016,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.476668169486641</v>
+        <v>1.457806002962066</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>1.738584958919394</v>
